--- a/exe/TSV/Excel/W10_新野崎駅_UIList.xlsx
+++ b/exe/TSV/Excel/W10_新野崎駅_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D553658D-309F-4EB0-9341-ACEFF70E0D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3FCD4B-1584-49ED-B0FA-78C67B9CDEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="24345" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7845" yWindow="4020" windowWidth="24345" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W10_新野崎駅_UIList" sheetId="1" r:id="rId1"/>
@@ -804,7 +804,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -818,7 +818,7 @@
     <col min="22" max="29" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,7 +891,7 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -906,12 +906,8 @@
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
-        <v>1280</v>
-      </c>
-      <c r="H2" s="4">
-        <v>720</v>
-      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -936,7 +932,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
@@ -946,8 +942,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5">
-        <f>G2*0.6</f>
-        <v>768</v>
+        <v>850</v>
       </c>
       <c r="F3" s="5">
         <v>10</v>
@@ -982,7 +977,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -1031,7 +1026,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1062,7 +1057,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1093,7 +1088,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1124,7 +1119,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1155,7 +1150,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1186,7 +1181,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1217,7 +1212,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1248,7 +1243,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1279,7 +1274,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1310,7 +1305,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1341,7 +1336,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1372,7 +1367,7 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1403,7 +1398,7 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1434,7 +1429,7 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1465,7 +1460,7 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1496,7 +1491,7 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1527,7 +1522,7 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1558,7 +1553,7 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1589,7 +1584,7 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1620,7 +1615,7 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1651,7 +1646,7 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1682,7 +1677,7 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1713,7 +1708,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1744,7 +1739,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1775,7 +1770,7 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1806,7 +1801,7 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1837,7 +1832,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1868,7 +1863,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1899,7 +1894,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1930,7 +1925,7 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1961,7 +1956,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1992,7 +1987,7 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2023,7 +2018,7 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2054,7 +2049,7 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2085,7 +2080,7 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2116,7 +2111,7 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2147,7 +2142,7 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2178,7 +2173,7 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2209,7 +2204,7 @@
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2240,7 +2235,7 @@
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2271,7 +2266,7 @@
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2302,7 +2297,7 @@
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2333,7 +2328,7 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2364,7 +2359,7 @@
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2395,7 +2390,7 @@
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2426,7 +2421,7 @@
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2457,7 +2452,7 @@
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2488,7 +2483,7 @@
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2519,7 +2514,7 @@
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2550,7 +2545,7 @@
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2581,7 +2576,7 @@
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2612,7 +2607,7 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2643,7 +2638,7 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2674,7 +2669,7 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2705,7 +2700,7 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2736,7 +2731,7 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2767,7 +2762,7 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2798,7 +2793,7 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2829,7 +2824,7 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2860,7 +2855,7 @@
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2891,7 +2886,7 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2922,7 +2917,7 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2953,7 +2948,7 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2984,7 +2979,7 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3015,7 +3010,7 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3046,7 +3041,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3077,7 +3072,7 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3108,7 +3103,7 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3139,7 +3134,7 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3170,7 +3165,7 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -3201,7 +3196,7 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3232,7 +3227,7 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3263,7 +3258,7 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -3294,7 +3289,7 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3325,7 +3320,7 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3356,7 +3351,7 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3387,7 +3382,7 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -3418,7 +3413,7 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3449,7 +3444,7 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3480,7 +3475,7 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3511,7 +3506,7 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3542,7 +3537,7 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3573,7 +3568,7 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3604,7 +3599,7 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3635,7 +3630,7 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3666,7 +3661,7 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3697,7 +3692,7 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3728,7 +3723,7 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3759,7 +3754,7 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3790,7 +3785,7 @@
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3821,7 +3816,7 @@
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3852,7 +3847,7 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3883,7 +3878,7 @@
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3914,7 +3909,7 @@
       <c r="AB97" s="3"/>
       <c r="AC97" s="3"/>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3945,7 +3940,7 @@
       <c r="AB98" s="3"/>
       <c r="AC98" s="3"/>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3976,7 +3971,7 @@
       <c r="AB99" s="3"/>
       <c r="AC99" s="3"/>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -4007,7 +4002,7 @@
       <c r="AB100" s="3"/>
       <c r="AC100" s="3"/>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -4038,7 +4033,7 @@
       <c r="AB101" s="3"/>
       <c r="AC101" s="3"/>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -4069,7 +4064,7 @@
       <c r="AB102" s="3"/>
       <c r="AC102" s="3"/>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -4100,7 +4095,7 @@
       <c r="AB103" s="3"/>
       <c r="AC103" s="3"/>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -4131,7 +4126,7 @@
       <c r="AB104" s="3"/>
       <c r="AC104" s="3"/>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -4162,7 +4157,7 @@
       <c r="AB105" s="3"/>
       <c r="AC105" s="3"/>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -4193,7 +4188,7 @@
       <c r="AB106" s="3"/>
       <c r="AC106" s="3"/>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -4224,7 +4219,7 @@
       <c r="AB107" s="3"/>
       <c r="AC107" s="3"/>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -4255,7 +4250,7 @@
       <c r="AB108" s="3"/>
       <c r="AC108" s="3"/>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -4286,7 +4281,7 @@
       <c r="AB109" s="3"/>
       <c r="AC109" s="3"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -4317,7 +4312,7 @@
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -4348,7 +4343,7 @@
       <c r="AB111" s="3"/>
       <c r="AC111" s="3"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -4379,7 +4374,7 @@
       <c r="AB112" s="3"/>
       <c r="AC112" s="3"/>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -4410,7 +4405,7 @@
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -4441,7 +4436,7 @@
       <c r="AB114" s="3"/>
       <c r="AC114" s="3"/>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -4472,7 +4467,7 @@
       <c r="AB115" s="3"/>
       <c r="AC115" s="3"/>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -4503,7 +4498,7 @@
       <c r="AB116" s="3"/>
       <c r="AC116" s="3"/>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -4534,7 +4529,7 @@
       <c r="AB117" s="3"/>
       <c r="AC117" s="3"/>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -4565,7 +4560,7 @@
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -4596,7 +4591,7 @@
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -4627,7 +4622,7 @@
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -4658,7 +4653,7 @@
       <c r="AB121" s="3"/>
       <c r="AC121" s="3"/>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -4689,7 +4684,7 @@
       <c r="AB122" s="3"/>
       <c r="AC122" s="3"/>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -4720,7 +4715,7 @@
       <c r="AB123" s="3"/>
       <c r="AC123" s="3"/>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -4751,7 +4746,7 @@
       <c r="AB124" s="3"/>
       <c r="AC124" s="3"/>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -4782,7 +4777,7 @@
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -4813,7 +4808,7 @@
       <c r="AB126" s="3"/>
       <c r="AC126" s="3"/>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -4844,7 +4839,7 @@
       <c r="AB127" s="3"/>
       <c r="AC127" s="3"/>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -4875,7 +4870,7 @@
       <c r="AB128" s="3"/>
       <c r="AC128" s="3"/>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -4906,7 +4901,7 @@
       <c r="AB129" s="3"/>
       <c r="AC129" s="3"/>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -4937,7 +4932,7 @@
       <c r="AB130" s="3"/>
       <c r="AC130" s="3"/>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -4968,7 +4963,7 @@
       <c r="AB131" s="3"/>
       <c r="AC131" s="3"/>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -4999,7 +4994,7 @@
       <c r="AB132" s="3"/>
       <c r="AC132" s="3"/>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -5030,7 +5025,7 @@
       <c r="AB133" s="3"/>
       <c r="AC133" s="3"/>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -5061,7 +5056,7 @@
       <c r="AB134" s="3"/>
       <c r="AC134" s="3"/>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -5092,7 +5087,7 @@
       <c r="AB135" s="3"/>
       <c r="AC135" s="3"/>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -5123,7 +5118,7 @@
       <c r="AB136" s="3"/>
       <c r="AC136" s="3"/>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -5154,7 +5149,7 @@
       <c r="AB137" s="3"/>
       <c r="AC137" s="3"/>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -5185,7 +5180,7 @@
       <c r="AB138" s="3"/>
       <c r="AC138" s="3"/>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -5216,7 +5211,7 @@
       <c r="AB139" s="3"/>
       <c r="AC139" s="3"/>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -5247,7 +5242,7 @@
       <c r="AB140" s="3"/>
       <c r="AC140" s="3"/>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -5278,7 +5273,7 @@
       <c r="AB141" s="3"/>
       <c r="AC141" s="3"/>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -5309,7 +5304,7 @@
       <c r="AB142" s="3"/>
       <c r="AC142" s="3"/>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -5340,7 +5335,7 @@
       <c r="AB143" s="3"/>
       <c r="AC143" s="3"/>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -5371,7 +5366,7 @@
       <c r="AB144" s="3"/>
       <c r="AC144" s="3"/>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -5402,7 +5397,7 @@
       <c r="AB145" s="3"/>
       <c r="AC145" s="3"/>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -5433,7 +5428,7 @@
       <c r="AB146" s="3"/>
       <c r="AC146" s="3"/>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -5464,7 +5459,7 @@
       <c r="AB147" s="3"/>
       <c r="AC147" s="3"/>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -5495,7 +5490,7 @@
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -5526,7 +5521,7 @@
       <c r="AB149" s="3"/>
       <c r="AC149" s="3"/>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -5557,7 +5552,7 @@
       <c r="AB150" s="3"/>
       <c r="AC150" s="3"/>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -5588,7 +5583,7 @@
       <c r="AB151" s="3"/>
       <c r="AC151" s="3"/>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -5619,7 +5614,7 @@
       <c r="AB152" s="3"/>
       <c r="AC152" s="3"/>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -5650,7 +5645,7 @@
       <c r="AB153" s="3"/>
       <c r="AC153" s="3"/>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -5681,7 +5676,7 @@
       <c r="AB154" s="3"/>
       <c r="AC154" s="3"/>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -5712,7 +5707,7 @@
       <c r="AB155" s="3"/>
       <c r="AC155" s="3"/>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -5743,7 +5738,7 @@
       <c r="AB156" s="3"/>
       <c r="AC156" s="3"/>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -5774,7 +5769,7 @@
       <c r="AB157" s="3"/>
       <c r="AC157" s="3"/>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -5805,7 +5800,7 @@
       <c r="AB158" s="3"/>
       <c r="AC158" s="3"/>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -5836,7 +5831,7 @@
       <c r="AB159" s="3"/>
       <c r="AC159" s="3"/>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -5867,7 +5862,7 @@
       <c r="AB160" s="3"/>
       <c r="AC160" s="3"/>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -5898,7 +5893,7 @@
       <c r="AB161" s="3"/>
       <c r="AC161" s="3"/>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -5929,7 +5924,7 @@
       <c r="AB162" s="3"/>
       <c r="AC162" s="3"/>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -5960,7 +5955,7 @@
       <c r="AB163" s="3"/>
       <c r="AC163" s="3"/>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -5991,7 +5986,7 @@
       <c r="AB164" s="3"/>
       <c r="AC164" s="3"/>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -6022,7 +6017,7 @@
       <c r="AB165" s="3"/>
       <c r="AC165" s="3"/>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -6053,7 +6048,7 @@
       <c r="AB166" s="3"/>
       <c r="AC166" s="3"/>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -6084,7 +6079,7 @@
       <c r="AB167" s="3"/>
       <c r="AC167" s="3"/>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -6115,7 +6110,7 @@
       <c r="AB168" s="3"/>
       <c r="AC168" s="3"/>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -6146,7 +6141,7 @@
       <c r="AB169" s="3"/>
       <c r="AC169" s="3"/>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -6177,7 +6172,7 @@
       <c r="AB170" s="3"/>
       <c r="AC170" s="3"/>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -6208,7 +6203,7 @@
       <c r="AB171" s="3"/>
       <c r="AC171" s="3"/>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -6239,7 +6234,7 @@
       <c r="AB172" s="3"/>
       <c r="AC172" s="3"/>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -6270,7 +6265,7 @@
       <c r="AB173" s="3"/>
       <c r="AC173" s="3"/>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -6301,7 +6296,7 @@
       <c r="AB174" s="3"/>
       <c r="AC174" s="3"/>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -6332,7 +6327,7 @@
       <c r="AB175" s="3"/>
       <c r="AC175" s="3"/>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -6363,7 +6358,7 @@
       <c r="AB176" s="3"/>
       <c r="AC176" s="3"/>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -6394,7 +6389,7 @@
       <c r="AB177" s="3"/>
       <c r="AC177" s="3"/>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -6425,7 +6420,7 @@
       <c r="AB178" s="3"/>
       <c r="AC178" s="3"/>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -6456,7 +6451,7 @@
       <c r="AB179" s="3"/>
       <c r="AC179" s="3"/>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -6487,7 +6482,7 @@
       <c r="AB180" s="3"/>
       <c r="AC180" s="3"/>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -6518,7 +6513,7 @@
       <c r="AB181" s="3"/>
       <c r="AC181" s="3"/>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -6549,7 +6544,7 @@
       <c r="AB182" s="3"/>
       <c r="AC182" s="3"/>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -6580,7 +6575,7 @@
       <c r="AB183" s="3"/>
       <c r="AC183" s="3"/>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -6611,7 +6606,7 @@
       <c r="AB184" s="3"/>
       <c r="AC184" s="3"/>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -6642,7 +6637,7 @@
       <c r="AB185" s="3"/>
       <c r="AC185" s="3"/>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -6673,7 +6668,7 @@
       <c r="AB186" s="3"/>
       <c r="AC186" s="3"/>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -6704,7 +6699,7 @@
       <c r="AB187" s="3"/>
       <c r="AC187" s="3"/>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -6735,7 +6730,7 @@
       <c r="AB188" s="3"/>
       <c r="AC188" s="3"/>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -6766,7 +6761,7 @@
       <c r="AB189" s="3"/>
       <c r="AC189" s="3"/>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -6797,7 +6792,7 @@
       <c r="AB190" s="3"/>
       <c r="AC190" s="3"/>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -6828,7 +6823,7 @@
       <c r="AB191" s="3"/>
       <c r="AC191" s="3"/>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -6859,7 +6854,7 @@
       <c r="AB192" s="3"/>
       <c r="AC192" s="3"/>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -6890,7 +6885,7 @@
       <c r="AB193" s="3"/>
       <c r="AC193" s="3"/>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -6921,7 +6916,7 @@
       <c r="AB194" s="3"/>
       <c r="AC194" s="3"/>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -6952,7 +6947,7 @@
       <c r="AB195" s="3"/>
       <c r="AC195" s="3"/>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -6983,7 +6978,7 @@
       <c r="AB196" s="3"/>
       <c r="AC196" s="3"/>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -7014,7 +7009,7 @@
       <c r="AB197" s="3"/>
       <c r="AC197" s="3"/>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -7045,7 +7040,7 @@
       <c r="AB198" s="3"/>
       <c r="AC198" s="3"/>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -7076,7 +7071,7 @@
       <c r="AB199" s="3"/>
       <c r="AC199" s="3"/>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -7107,7 +7102,7 @@
       <c r="AB200" s="3"/>
       <c r="AC200" s="3"/>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -7138,7 +7133,7 @@
       <c r="AB201" s="3"/>
       <c r="AC201" s="3"/>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -7169,7 +7164,7 @@
       <c r="AB202" s="3"/>
       <c r="AC202" s="3"/>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -7200,7 +7195,7 @@
       <c r="AB203" s="3"/>
       <c r="AC203" s="3"/>
     </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -7231,7 +7226,7 @@
       <c r="AB204" s="3"/>
       <c r="AC204" s="3"/>
     </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -7262,7 +7257,7 @@
       <c r="AB205" s="3"/>
       <c r="AC205" s="3"/>
     </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -7293,7 +7288,7 @@
       <c r="AB206" s="3"/>
       <c r="AC206" s="3"/>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -7324,7 +7319,7 @@
       <c r="AB207" s="3"/>
       <c r="AC207" s="3"/>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -7355,7 +7350,7 @@
       <c r="AB208" s="3"/>
       <c r="AC208" s="3"/>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -7386,7 +7381,7 @@
       <c r="AB209" s="3"/>
       <c r="AC209" s="3"/>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -7417,7 +7412,7 @@
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -7448,7 +7443,7 @@
       <c r="AB211" s="3"/>
       <c r="AC211" s="3"/>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -7479,7 +7474,7 @@
       <c r="AB212" s="3"/>
       <c r="AC212" s="3"/>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -7510,7 +7505,7 @@
       <c r="AB213" s="3"/>
       <c r="AC213" s="3"/>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -7541,7 +7536,7 @@
       <c r="AB214" s="3"/>
       <c r="AC214" s="3"/>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -7572,7 +7567,7 @@
       <c r="AB215" s="3"/>
       <c r="AC215" s="3"/>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -7603,7 +7598,7 @@
       <c r="AB216" s="3"/>
       <c r="AC216" s="3"/>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -7634,7 +7629,7 @@
       <c r="AB217" s="3"/>
       <c r="AC217" s="3"/>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -7665,7 +7660,7 @@
       <c r="AB218" s="3"/>
       <c r="AC218" s="3"/>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -7696,7 +7691,7 @@
       <c r="AB219" s="3"/>
       <c r="AC219" s="3"/>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -7727,7 +7722,7 @@
       <c r="AB220" s="3"/>
       <c r="AC220" s="3"/>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -7758,7 +7753,7 @@
       <c r="AB221" s="3"/>
       <c r="AC221" s="3"/>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -7789,7 +7784,7 @@
       <c r="AB222" s="3"/>
       <c r="AC222" s="3"/>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -7820,7 +7815,7 @@
       <c r="AB223" s="3"/>
       <c r="AC223" s="3"/>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -7851,7 +7846,7 @@
       <c r="AB224" s="3"/>
       <c r="AC224" s="3"/>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -7882,7 +7877,7 @@
       <c r="AB225" s="3"/>
       <c r="AC225" s="3"/>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -7913,7 +7908,7 @@
       <c r="AB226" s="3"/>
       <c r="AC226" s="3"/>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -7944,7 +7939,7 @@
       <c r="AB227" s="3"/>
       <c r="AC227" s="3"/>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -7975,7 +7970,7 @@
       <c r="AB228" s="3"/>
       <c r="AC228" s="3"/>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -8006,7 +8001,7 @@
       <c r="AB229" s="3"/>
       <c r="AC229" s="3"/>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -8037,7 +8032,7 @@
       <c r="AB230" s="3"/>
       <c r="AC230" s="3"/>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -8068,7 +8063,7 @@
       <c r="AB231" s="3"/>
       <c r="AC231" s="3"/>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -8099,7 +8094,7 @@
       <c r="AB232" s="3"/>
       <c r="AC232" s="3"/>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -8130,7 +8125,7 @@
       <c r="AB233" s="3"/>
       <c r="AC233" s="3"/>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -8161,7 +8156,7 @@
       <c r="AB234" s="3"/>
       <c r="AC234" s="3"/>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -8192,7 +8187,7 @@
       <c r="AB235" s="3"/>
       <c r="AC235" s="3"/>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -8223,7 +8218,7 @@
       <c r="AB236" s="3"/>
       <c r="AC236" s="3"/>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -8254,7 +8249,7 @@
       <c r="AB237" s="3"/>
       <c r="AC237" s="3"/>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -8285,7 +8280,7 @@
       <c r="AB238" s="3"/>
       <c r="AC238" s="3"/>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -8316,7 +8311,7 @@
       <c r="AB239" s="3"/>
       <c r="AC239" s="3"/>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -8347,7 +8342,7 @@
       <c r="AB240" s="3"/>
       <c r="AC240" s="3"/>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -8378,7 +8373,7 @@
       <c r="AB241" s="3"/>
       <c r="AC241" s="3"/>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -8409,7 +8404,7 @@
       <c r="AB242" s="3"/>
       <c r="AC242" s="3"/>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -8440,7 +8435,7 @@
       <c r="AB243" s="3"/>
       <c r="AC243" s="3"/>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -8471,7 +8466,7 @@
       <c r="AB244" s="3"/>
       <c r="AC244" s="3"/>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -8502,7 +8497,7 @@
       <c r="AB245" s="3"/>
       <c r="AC245" s="3"/>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -8533,7 +8528,7 @@
       <c r="AB246" s="3"/>
       <c r="AC246" s="3"/>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -8564,7 +8559,7 @@
       <c r="AB247" s="3"/>
       <c r="AC247" s="3"/>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -8595,7 +8590,7 @@
       <c r="AB248" s="3"/>
       <c r="AC248" s="3"/>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -8626,7 +8621,7 @@
       <c r="AB249" s="3"/>
       <c r="AC249" s="3"/>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -8657,7 +8652,7 @@
       <c r="AB250" s="3"/>
       <c r="AC250" s="3"/>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -8688,7 +8683,7 @@
       <c r="AB251" s="3"/>
       <c r="AC251" s="3"/>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -8719,7 +8714,7 @@
       <c r="AB252" s="3"/>
       <c r="AC252" s="3"/>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -8750,7 +8745,7 @@
       <c r="AB253" s="3"/>
       <c r="AC253" s="3"/>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -8781,7 +8776,7 @@
       <c r="AB254" s="3"/>
       <c r="AC254" s="3"/>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -8812,7 +8807,7 @@
       <c r="AB255" s="3"/>
       <c r="AC255" s="3"/>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -8843,7 +8838,7 @@
       <c r="AB256" s="3"/>
       <c r="AC256" s="3"/>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -8874,7 +8869,7 @@
       <c r="AB257" s="3"/>
       <c r="AC257" s="3"/>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -8905,7 +8900,7 @@
       <c r="AB258" s="3"/>
       <c r="AC258" s="3"/>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -8936,7 +8931,7 @@
       <c r="AB259" s="3"/>
       <c r="AC259" s="3"/>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -8967,7 +8962,7 @@
       <c r="AB260" s="3"/>
       <c r="AC260" s="3"/>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -8998,7 +8993,7 @@
       <c r="AB261" s="3"/>
       <c r="AC261" s="3"/>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -9029,7 +9024,7 @@
       <c r="AB262" s="3"/>
       <c r="AC262" s="3"/>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -9060,7 +9055,7 @@
       <c r="AB263" s="3"/>
       <c r="AC263" s="3"/>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -9091,7 +9086,7 @@
       <c r="AB264" s="3"/>
       <c r="AC264" s="3"/>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -9122,7 +9117,7 @@
       <c r="AB265" s="3"/>
       <c r="AC265" s="3"/>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -9153,7 +9148,7 @@
       <c r="AB266" s="3"/>
       <c r="AC266" s="3"/>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -9184,7 +9179,7 @@
       <c r="AB267" s="3"/>
       <c r="AC267" s="3"/>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -9215,7 +9210,7 @@
       <c r="AB268" s="3"/>
       <c r="AC268" s="3"/>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -9246,7 +9241,7 @@
       <c r="AB269" s="3"/>
       <c r="AC269" s="3"/>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -9277,7 +9272,7 @@
       <c r="AB270" s="3"/>
       <c r="AC270" s="3"/>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -9308,7 +9303,7 @@
       <c r="AB271" s="3"/>
       <c r="AC271" s="3"/>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -9339,7 +9334,7 @@
       <c r="AB272" s="3"/>
       <c r="AC272" s="3"/>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -9370,7 +9365,7 @@
       <c r="AB273" s="3"/>
       <c r="AC273" s="3"/>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -9401,7 +9396,7 @@
       <c r="AB274" s="3"/>
       <c r="AC274" s="3"/>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -9432,7 +9427,7 @@
       <c r="AB275" s="3"/>
       <c r="AC275" s="3"/>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -9463,7 +9458,7 @@
       <c r="AB276" s="3"/>
       <c r="AC276" s="3"/>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -9494,7 +9489,7 @@
       <c r="AB277" s="3"/>
       <c r="AC277" s="3"/>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -9525,7 +9520,7 @@
       <c r="AB278" s="3"/>
       <c r="AC278" s="3"/>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -9556,7 +9551,7 @@
       <c r="AB279" s="3"/>
       <c r="AC279" s="3"/>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -9587,7 +9582,7 @@
       <c r="AB280" s="3"/>
       <c r="AC280" s="3"/>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -9618,7 +9613,7 @@
       <c r="AB281" s="3"/>
       <c r="AC281" s="3"/>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -9649,7 +9644,7 @@
       <c r="AB282" s="3"/>
       <c r="AC282" s="3"/>
     </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -9680,7 +9675,7 @@
       <c r="AB283" s="3"/>
       <c r="AC283" s="3"/>
     </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -9711,7 +9706,7 @@
       <c r="AB284" s="3"/>
       <c r="AC284" s="3"/>
     </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -9742,7 +9737,7 @@
       <c r="AB285" s="3"/>
       <c r="AC285" s="3"/>
     </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -9773,7 +9768,7 @@
       <c r="AB286" s="3"/>
       <c r="AC286" s="3"/>
     </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -9804,7 +9799,7 @@
       <c r="AB287" s="3"/>
       <c r="AC287" s="3"/>
     </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -9835,7 +9830,7 @@
       <c r="AB288" s="3"/>
       <c r="AC288" s="3"/>
     </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -9866,7 +9861,7 @@
       <c r="AB289" s="3"/>
       <c r="AC289" s="3"/>
     </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -9897,7 +9892,7 @@
       <c r="AB290" s="3"/>
       <c r="AC290" s="3"/>
     </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -9928,7 +9923,7 @@
       <c r="AB291" s="3"/>
       <c r="AC291" s="3"/>
     </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -9959,7 +9954,7 @@
       <c r="AB292" s="3"/>
       <c r="AC292" s="3"/>
     </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -9990,7 +9985,7 @@
       <c r="AB293" s="3"/>
       <c r="AC293" s="3"/>
     </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -10021,7 +10016,7 @@
       <c r="AB294" s="3"/>
       <c r="AC294" s="3"/>
     </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -10052,7 +10047,7 @@
       <c r="AB295" s="3"/>
       <c r="AC295" s="3"/>
     </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -10083,7 +10078,7 @@
       <c r="AB296" s="3"/>
       <c r="AC296" s="3"/>
     </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -10114,7 +10109,7 @@
       <c r="AB297" s="3"/>
       <c r="AC297" s="3"/>
     </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -10145,7 +10140,7 @@
       <c r="AB298" s="3"/>
       <c r="AC298" s="3"/>
     </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -10176,7 +10171,7 @@
       <c r="AB299" s="3"/>
       <c r="AC299" s="3"/>
     </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -10207,7 +10202,7 @@
       <c r="AB300" s="3"/>
       <c r="AC300" s="3"/>
     </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -10238,7 +10233,7 @@
       <c r="AB301" s="3"/>
       <c r="AC301" s="3"/>
     </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -10269,7 +10264,7 @@
       <c r="AB302" s="3"/>
       <c r="AC302" s="3"/>
     </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -10300,7 +10295,7 @@
       <c r="AB303" s="3"/>
       <c r="AC303" s="3"/>
     </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -10331,7 +10326,7 @@
       <c r="AB304" s="3"/>
       <c r="AC304" s="3"/>
     </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -10362,7 +10357,7 @@
       <c r="AB305" s="3"/>
       <c r="AC305" s="3"/>
     </row>
-    <row r="306" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -10393,7 +10388,7 @@
       <c r="AB306" s="3"/>
       <c r="AC306" s="3"/>
     </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -10424,7 +10419,7 @@
       <c r="AB307" s="3"/>
       <c r="AC307" s="3"/>
     </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -10455,7 +10450,7 @@
       <c r="AB308" s="3"/>
       <c r="AC308" s="3"/>
     </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -10486,7 +10481,7 @@
       <c r="AB309" s="3"/>
       <c r="AC309" s="3"/>
     </row>
-    <row r="310" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -10517,7 +10512,7 @@
       <c r="AB310" s="3"/>
       <c r="AC310" s="3"/>
     </row>
-    <row r="311" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -10548,7 +10543,7 @@
       <c r="AB311" s="3"/>
       <c r="AC311" s="3"/>
     </row>
-    <row r="312" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -10579,7 +10574,7 @@
       <c r="AB312" s="3"/>
       <c r="AC312" s="3"/>
     </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -10610,7 +10605,7 @@
       <c r="AB313" s="3"/>
       <c r="AC313" s="3"/>
     </row>
-    <row r="314" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -10641,7 +10636,7 @@
       <c r="AB314" s="3"/>
       <c r="AC314" s="3"/>
     </row>
-    <row r="315" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -10672,7 +10667,7 @@
       <c r="AB315" s="3"/>
       <c r="AC315" s="3"/>
     </row>
-    <row r="316" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -10703,7 +10698,7 @@
       <c r="AB316" s="3"/>
       <c r="AC316" s="3"/>
     </row>
-    <row r="317" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -10734,7 +10729,7 @@
       <c r="AB317" s="3"/>
       <c r="AC317" s="3"/>
     </row>
-    <row r="318" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -10765,7 +10760,7 @@
       <c r="AB318" s="3"/>
       <c r="AC318" s="3"/>
     </row>
-    <row r="319" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -10796,7 +10791,7 @@
       <c r="AB319" s="3"/>
       <c r="AC319" s="3"/>
     </row>
-    <row r="320" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -10827,7 +10822,7 @@
       <c r="AB320" s="3"/>
       <c r="AC320" s="3"/>
     </row>
-    <row r="321" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -10858,7 +10853,7 @@
       <c r="AB321" s="3"/>
       <c r="AC321" s="3"/>
     </row>
-    <row r="322" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -10889,7 +10884,7 @@
       <c r="AB322" s="3"/>
       <c r="AC322" s="3"/>
     </row>
-    <row r="323" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -10920,7 +10915,7 @@
       <c r="AB323" s="3"/>
       <c r="AC323" s="3"/>
     </row>
-    <row r="324" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -10951,7 +10946,7 @@
       <c r="AB324" s="3"/>
       <c r="AC324" s="3"/>
     </row>
-    <row r="325" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -10982,7 +10977,7 @@
       <c r="AB325" s="3"/>
       <c r="AC325" s="3"/>
     </row>
-    <row r="326" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -11013,7 +11008,7 @@
       <c r="AB326" s="3"/>
       <c r="AC326" s="3"/>
     </row>
-    <row r="327" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -11044,7 +11039,7 @@
       <c r="AB327" s="3"/>
       <c r="AC327" s="3"/>
     </row>
-    <row r="328" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -11075,7 +11070,7 @@
       <c r="AB328" s="3"/>
       <c r="AC328" s="3"/>
     </row>
-    <row r="329" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -11106,7 +11101,7 @@
       <c r="AB329" s="3"/>
       <c r="AC329" s="3"/>
     </row>
-    <row r="330" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -11137,7 +11132,7 @@
       <c r="AB330" s="3"/>
       <c r="AC330" s="3"/>
     </row>
-    <row r="331" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -11168,7 +11163,7 @@
       <c r="AB331" s="3"/>
       <c r="AC331" s="3"/>
     </row>
-    <row r="332" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -11199,7 +11194,7 @@
       <c r="AB332" s="3"/>
       <c r="AC332" s="3"/>
     </row>
-    <row r="333" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -11230,7 +11225,7 @@
       <c r="AB333" s="3"/>
       <c r="AC333" s="3"/>
     </row>
-    <row r="334" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -11261,7 +11256,7 @@
       <c r="AB334" s="3"/>
       <c r="AC334" s="3"/>
     </row>
-    <row r="335" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -11292,7 +11287,7 @@
       <c r="AB335" s="3"/>
       <c r="AC335" s="3"/>
     </row>
-    <row r="336" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -11323,7 +11318,7 @@
       <c r="AB336" s="3"/>
       <c r="AC336" s="3"/>
     </row>
-    <row r="337" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -11354,7 +11349,7 @@
       <c r="AB337" s="3"/>
       <c r="AC337" s="3"/>
     </row>
-    <row r="338" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -11385,7 +11380,7 @@
       <c r="AB338" s="3"/>
       <c r="AC338" s="3"/>
     </row>
-    <row r="339" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -11416,7 +11411,7 @@
       <c r="AB339" s="3"/>
       <c r="AC339" s="3"/>
     </row>
-    <row r="340" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -11447,7 +11442,7 @@
       <c r="AB340" s="3"/>
       <c r="AC340" s="3"/>
     </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -11478,7 +11473,7 @@
       <c r="AB341" s="3"/>
       <c r="AC341" s="3"/>
     </row>
-    <row r="342" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -11509,7 +11504,7 @@
       <c r="AB342" s="3"/>
       <c r="AC342" s="3"/>
     </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -11540,7 +11535,7 @@
       <c r="AB343" s="3"/>
       <c r="AC343" s="3"/>
     </row>
-    <row r="344" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -11571,7 +11566,7 @@
       <c r="AB344" s="3"/>
       <c r="AC344" s="3"/>
     </row>
-    <row r="345" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -11602,7 +11597,7 @@
       <c r="AB345" s="3"/>
       <c r="AC345" s="3"/>
     </row>
-    <row r="346" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -11633,7 +11628,7 @@
       <c r="AB346" s="3"/>
       <c r="AC346" s="3"/>
     </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -11664,7 +11659,7 @@
       <c r="AB347" s="3"/>
       <c r="AC347" s="3"/>
     </row>
-    <row r="348" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -11695,7 +11690,7 @@
       <c r="AB348" s="3"/>
       <c r="AC348" s="3"/>
     </row>
-    <row r="349" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -11726,7 +11721,7 @@
       <c r="AB349" s="3"/>
       <c r="AC349" s="3"/>
     </row>
-    <row r="350" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -11757,7 +11752,7 @@
       <c r="AB350" s="3"/>
       <c r="AC350" s="3"/>
     </row>
-    <row r="351" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -11788,7 +11783,7 @@
       <c r="AB351" s="3"/>
       <c r="AC351" s="3"/>
     </row>
-    <row r="352" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -11819,7 +11814,7 @@
       <c r="AB352" s="3"/>
       <c r="AC352" s="3"/>
     </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -11850,7 +11845,7 @@
       <c r="AB353" s="3"/>
       <c r="AC353" s="3"/>
     </row>
-    <row r="354" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -11881,7 +11876,7 @@
       <c r="AB354" s="3"/>
       <c r="AC354" s="3"/>
     </row>
-    <row r="355" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -11912,7 +11907,7 @@
       <c r="AB355" s="3"/>
       <c r="AC355" s="3"/>
     </row>
-    <row r="356" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -11943,7 +11938,7 @@
       <c r="AB356" s="3"/>
       <c r="AC356" s="3"/>
     </row>
-    <row r="357" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -11974,7 +11969,7 @@
       <c r="AB357" s="3"/>
       <c r="AC357" s="3"/>
     </row>
-    <row r="358" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -12005,7 +12000,7 @@
       <c r="AB358" s="3"/>
       <c r="AC358" s="3"/>
     </row>
-    <row r="359" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -12036,7 +12031,7 @@
       <c r="AB359" s="3"/>
       <c r="AC359" s="3"/>
     </row>
-    <row r="360" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -12067,7 +12062,7 @@
       <c r="AB360" s="3"/>
       <c r="AC360" s="3"/>
     </row>
-    <row r="361" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -12098,7 +12093,7 @@
       <c r="AB361" s="3"/>
       <c r="AC361" s="3"/>
     </row>
-    <row r="362" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -12129,7 +12124,7 @@
       <c r="AB362" s="3"/>
       <c r="AC362" s="3"/>
     </row>
-    <row r="363" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -12160,7 +12155,7 @@
       <c r="AB363" s="3"/>
       <c r="AC363" s="3"/>
     </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -12191,7 +12186,7 @@
       <c r="AB364" s="3"/>
       <c r="AC364" s="3"/>
     </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -12222,7 +12217,7 @@
       <c r="AB365" s="3"/>
       <c r="AC365" s="3"/>
     </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -12253,7 +12248,7 @@
       <c r="AB366" s="3"/>
       <c r="AC366" s="3"/>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -12284,7 +12279,7 @@
       <c r="AB367" s="3"/>
       <c r="AC367" s="3"/>
     </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -12315,7 +12310,7 @@
       <c r="AB368" s="3"/>
       <c r="AC368" s="3"/>
     </row>
-    <row r="369" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -12346,7 +12341,7 @@
       <c r="AB369" s="3"/>
       <c r="AC369" s="3"/>
     </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -12377,7 +12372,7 @@
       <c r="AB370" s="3"/>
       <c r="AC370" s="3"/>
     </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -12408,7 +12403,7 @@
       <c r="AB371" s="3"/>
       <c r="AC371" s="3"/>
     </row>
-    <row r="372" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -12439,7 +12434,7 @@
       <c r="AB372" s="3"/>
       <c r="AC372" s="3"/>
     </row>
-    <row r="373" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -12470,7 +12465,7 @@
       <c r="AB373" s="3"/>
       <c r="AC373" s="3"/>
     </row>
-    <row r="374" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -12501,7 +12496,7 @@
       <c r="AB374" s="3"/>
       <c r="AC374" s="3"/>
     </row>
-    <row r="375" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -12532,7 +12527,7 @@
       <c r="AB375" s="3"/>
       <c r="AC375" s="3"/>
     </row>
-    <row r="376" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -12563,7 +12558,7 @@
       <c r="AB376" s="3"/>
       <c r="AC376" s="3"/>
     </row>
-    <row r="377" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -12594,7 +12589,7 @@
       <c r="AB377" s="3"/>
       <c r="AC377" s="3"/>
     </row>
-    <row r="378" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -12625,7 +12620,7 @@
       <c r="AB378" s="3"/>
       <c r="AC378" s="3"/>
     </row>
-    <row r="379" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -12656,7 +12651,7 @@
       <c r="AB379" s="3"/>
       <c r="AC379" s="3"/>
     </row>
-    <row r="380" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -12687,7 +12682,7 @@
       <c r="AB380" s="3"/>
       <c r="AC380" s="3"/>
     </row>
-    <row r="381" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -12718,7 +12713,7 @@
       <c r="AB381" s="3"/>
       <c r="AC381" s="3"/>
     </row>
-    <row r="382" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -12749,7 +12744,7 @@
       <c r="AB382" s="3"/>
       <c r="AC382" s="3"/>
     </row>
-    <row r="383" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -12780,7 +12775,7 @@
       <c r="AB383" s="3"/>
       <c r="AC383" s="3"/>
     </row>
-    <row r="384" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -12811,7 +12806,7 @@
       <c r="AB384" s="3"/>
       <c r="AC384" s="3"/>
     </row>
-    <row r="385" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -12842,7 +12837,7 @@
       <c r="AB385" s="3"/>
       <c r="AC385" s="3"/>
     </row>
-    <row r="386" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -12873,7 +12868,7 @@
       <c r="AB386" s="3"/>
       <c r="AC386" s="3"/>
     </row>
-    <row r="387" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -12904,7 +12899,7 @@
       <c r="AB387" s="3"/>
       <c r="AC387" s="3"/>
     </row>
-    <row r="388" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -12935,7 +12930,7 @@
       <c r="AB388" s="3"/>
       <c r="AC388" s="3"/>
     </row>
-    <row r="389" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -12966,7 +12961,7 @@
       <c r="AB389" s="3"/>
       <c r="AC389" s="3"/>
     </row>
-    <row r="390" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -12997,7 +12992,7 @@
       <c r="AB390" s="3"/>
       <c r="AC390" s="3"/>
     </row>
-    <row r="391" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -13028,7 +13023,7 @@
       <c r="AB391" s="3"/>
       <c r="AC391" s="3"/>
     </row>
-    <row r="392" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -13059,7 +13054,7 @@
       <c r="AB392" s="3"/>
       <c r="AC392" s="3"/>
     </row>
-    <row r="393" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -13090,7 +13085,7 @@
       <c r="AB393" s="3"/>
       <c r="AC393" s="3"/>
     </row>
-    <row r="394" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -13121,7 +13116,7 @@
       <c r="AB394" s="3"/>
       <c r="AC394" s="3"/>
     </row>
-    <row r="395" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -13152,7 +13147,7 @@
       <c r="AB395" s="3"/>
       <c r="AC395" s="3"/>
     </row>
-    <row r="396" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -13183,7 +13178,7 @@
       <c r="AB396" s="3"/>
       <c r="AC396" s="3"/>
     </row>
-    <row r="397" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -13214,7 +13209,7 @@
       <c r="AB397" s="3"/>
       <c r="AC397" s="3"/>
     </row>
-    <row r="398" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -13245,7 +13240,7 @@
       <c r="AB398" s="3"/>
       <c r="AC398" s="3"/>
     </row>
-    <row r="399" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -13276,7 +13271,7 @@
       <c r="AB399" s="3"/>
       <c r="AC399" s="3"/>
     </row>
-    <row r="400" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -13307,7 +13302,7 @@
       <c r="AB400" s="3"/>
       <c r="AC400" s="3"/>
     </row>
-    <row r="401" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -13338,7 +13333,7 @@
       <c r="AB401" s="3"/>
       <c r="AC401" s="3"/>
     </row>
-    <row r="402" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -13369,7 +13364,7 @@
       <c r="AB402" s="3"/>
       <c r="AC402" s="3"/>
     </row>
-    <row r="403" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -13400,7 +13395,7 @@
       <c r="AB403" s="3"/>
       <c r="AC403" s="3"/>
     </row>
-    <row r="404" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -13431,7 +13426,7 @@
       <c r="AB404" s="3"/>
       <c r="AC404" s="3"/>
     </row>
-    <row r="405" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -13462,7 +13457,7 @@
       <c r="AB405" s="3"/>
       <c r="AC405" s="3"/>
     </row>
-    <row r="406" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -13493,7 +13488,7 @@
       <c r="AB406" s="3"/>
       <c r="AC406" s="3"/>
     </row>
-    <row r="407" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -13524,7 +13519,7 @@
       <c r="AB407" s="3"/>
       <c r="AC407" s="3"/>
     </row>
-    <row r="408" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -13555,7 +13550,7 @@
       <c r="AB408" s="3"/>
       <c r="AC408" s="3"/>
     </row>
-    <row r="409" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -13586,7 +13581,7 @@
       <c r="AB409" s="3"/>
       <c r="AC409" s="3"/>
     </row>
-    <row r="410" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -13617,7 +13612,7 @@
       <c r="AB410" s="3"/>
       <c r="AC410" s="3"/>
     </row>
-    <row r="411" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -13648,7 +13643,7 @@
       <c r="AB411" s="3"/>
       <c r="AC411" s="3"/>
     </row>
-    <row r="412" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -13679,7 +13674,7 @@
       <c r="AB412" s="3"/>
       <c r="AC412" s="3"/>
     </row>
-    <row r="413" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -13710,7 +13705,7 @@
       <c r="AB413" s="3"/>
       <c r="AC413" s="3"/>
     </row>
-    <row r="414" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -13741,7 +13736,7 @@
       <c r="AB414" s="3"/>
       <c r="AC414" s="3"/>
     </row>
-    <row r="415" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -13772,7 +13767,7 @@
       <c r="AB415" s="3"/>
       <c r="AC415" s="3"/>
     </row>
-    <row r="416" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -13803,7 +13798,7 @@
       <c r="AB416" s="3"/>
       <c r="AC416" s="3"/>
     </row>
-    <row r="417" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -13834,7 +13829,7 @@
       <c r="AB417" s="3"/>
       <c r="AC417" s="3"/>
     </row>
-    <row r="418" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -13865,7 +13860,7 @@
       <c r="AB418" s="3"/>
       <c r="AC418" s="3"/>
     </row>
-    <row r="419" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -13896,7 +13891,7 @@
       <c r="AB419" s="3"/>
       <c r="AC419" s="3"/>
     </row>
-    <row r="420" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -13927,7 +13922,7 @@
       <c r="AB420" s="3"/>
       <c r="AC420" s="3"/>
     </row>
-    <row r="421" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -13958,7 +13953,7 @@
       <c r="AB421" s="3"/>
       <c r="AC421" s="3"/>
     </row>
-    <row r="422" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -13989,7 +13984,7 @@
       <c r="AB422" s="3"/>
       <c r="AC422" s="3"/>
     </row>
-    <row r="423" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -14020,7 +14015,7 @@
       <c r="AB423" s="3"/>
       <c r="AC423" s="3"/>
     </row>
-    <row r="424" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -14051,7 +14046,7 @@
       <c r="AB424" s="3"/>
       <c r="AC424" s="3"/>
     </row>
-    <row r="425" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -14082,7 +14077,7 @@
       <c r="AB425" s="3"/>
       <c r="AC425" s="3"/>
     </row>
-    <row r="426" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -14113,7 +14108,7 @@
       <c r="AB426" s="3"/>
       <c r="AC426" s="3"/>
     </row>
-    <row r="427" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -14144,7 +14139,7 @@
       <c r="AB427" s="3"/>
       <c r="AC427" s="3"/>
     </row>
-    <row r="428" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -14175,7 +14170,7 @@
       <c r="AB428" s="3"/>
       <c r="AC428" s="3"/>
     </row>
-    <row r="429" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -14206,7 +14201,7 @@
       <c r="AB429" s="3"/>
       <c r="AC429" s="3"/>
     </row>
-    <row r="430" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -14237,7 +14232,7 @@
       <c r="AB430" s="3"/>
       <c r="AC430" s="3"/>
     </row>
-    <row r="431" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -14268,7 +14263,7 @@
       <c r="AB431" s="3"/>
       <c r="AC431" s="3"/>
     </row>
-    <row r="432" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -14299,7 +14294,7 @@
       <c r="AB432" s="3"/>
       <c r="AC432" s="3"/>
     </row>
-    <row r="433" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -14330,7 +14325,7 @@
       <c r="AB433" s="3"/>
       <c r="AC433" s="3"/>
     </row>
-    <row r="434" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -14361,7 +14356,7 @@
       <c r="AB434" s="3"/>
       <c r="AC434" s="3"/>
     </row>
-    <row r="435" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -14392,7 +14387,7 @@
       <c r="AB435" s="3"/>
       <c r="AC435" s="3"/>
     </row>
-    <row r="436" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -14423,7 +14418,7 @@
       <c r="AB436" s="3"/>
       <c r="AC436" s="3"/>
     </row>
-    <row r="437" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -14454,7 +14449,7 @@
       <c r="AB437" s="3"/>
       <c r="AC437" s="3"/>
     </row>
-    <row r="438" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -14485,7 +14480,7 @@
       <c r="AB438" s="3"/>
       <c r="AC438" s="3"/>
     </row>
-    <row r="439" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -14516,7 +14511,7 @@
       <c r="AB439" s="3"/>
       <c r="AC439" s="3"/>
     </row>
-    <row r="440" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -14547,7 +14542,7 @@
       <c r="AB440" s="3"/>
       <c r="AC440" s="3"/>
     </row>
-    <row r="441" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -14578,7 +14573,7 @@
       <c r="AB441" s="3"/>
       <c r="AC441" s="3"/>
     </row>
-    <row r="442" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -14609,7 +14604,7 @@
       <c r="AB442" s="3"/>
       <c r="AC442" s="3"/>
     </row>
-    <row r="443" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -14640,7 +14635,7 @@
       <c r="AB443" s="3"/>
       <c r="AC443" s="3"/>
     </row>
-    <row r="444" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -14671,7 +14666,7 @@
       <c r="AB444" s="3"/>
       <c r="AC444" s="3"/>
     </row>
-    <row r="445" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -14702,7 +14697,7 @@
       <c r="AB445" s="3"/>
       <c r="AC445" s="3"/>
     </row>
-    <row r="446" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -14733,7 +14728,7 @@
       <c r="AB446" s="3"/>
       <c r="AC446" s="3"/>
     </row>
-    <row r="447" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -14764,7 +14759,7 @@
       <c r="AB447" s="3"/>
       <c r="AC447" s="3"/>
     </row>
-    <row r="448" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -14795,7 +14790,7 @@
       <c r="AB448" s="3"/>
       <c r="AC448" s="3"/>
     </row>
-    <row r="449" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -14826,7 +14821,7 @@
       <c r="AB449" s="3"/>
       <c r="AC449" s="3"/>
     </row>
-    <row r="450" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -14857,7 +14852,7 @@
       <c r="AB450" s="3"/>
       <c r="AC450" s="3"/>
     </row>
-    <row r="451" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -14888,7 +14883,7 @@
       <c r="AB451" s="3"/>
       <c r="AC451" s="3"/>
     </row>
-    <row r="452" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -14919,7 +14914,7 @@
       <c r="AB452" s="3"/>
       <c r="AC452" s="3"/>
     </row>
-    <row r="453" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -14950,7 +14945,7 @@
       <c r="AB453" s="3"/>
       <c r="AC453" s="3"/>
     </row>
-    <row r="454" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -14981,7 +14976,7 @@
       <c r="AB454" s="3"/>
       <c r="AC454" s="3"/>
     </row>
-    <row r="455" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -15012,7 +15007,7 @@
       <c r="AB455" s="3"/>
       <c r="AC455" s="3"/>
     </row>
-    <row r="456" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -15043,7 +15038,7 @@
       <c r="AB456" s="3"/>
       <c r="AC456" s="3"/>
     </row>
-    <row r="457" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -15074,7 +15069,7 @@
       <c r="AB457" s="3"/>
       <c r="AC457" s="3"/>
     </row>
-    <row r="458" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -15105,7 +15100,7 @@
       <c r="AB458" s="3"/>
       <c r="AC458" s="3"/>
     </row>
-    <row r="459" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -15136,7 +15131,7 @@
       <c r="AB459" s="3"/>
       <c r="AC459" s="3"/>
     </row>
-    <row r="460" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -15167,7 +15162,7 @@
       <c r="AB460" s="3"/>
       <c r="AC460" s="3"/>
     </row>
-    <row r="461" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -15198,7 +15193,7 @@
       <c r="AB461" s="3"/>
       <c r="AC461" s="3"/>
     </row>
-    <row r="462" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -15229,7 +15224,7 @@
       <c r="AB462" s="3"/>
       <c r="AC462" s="3"/>
     </row>
-    <row r="463" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -15260,7 +15255,7 @@
       <c r="AB463" s="3"/>
       <c r="AC463" s="3"/>
     </row>
-    <row r="464" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -15291,7 +15286,7 @@
       <c r="AB464" s="3"/>
       <c r="AC464" s="3"/>
     </row>
-    <row r="465" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -15322,7 +15317,7 @@
       <c r="AB465" s="3"/>
       <c r="AC465" s="3"/>
     </row>
-    <row r="466" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -15353,7 +15348,7 @@
       <c r="AB466" s="3"/>
       <c r="AC466" s="3"/>
     </row>
-    <row r="467" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -15384,7 +15379,7 @@
       <c r="AB467" s="3"/>
       <c r="AC467" s="3"/>
     </row>
-    <row r="468" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -15415,7 +15410,7 @@
       <c r="AB468" s="3"/>
       <c r="AC468" s="3"/>
     </row>
-    <row r="469" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -15446,7 +15441,7 @@
       <c r="AB469" s="3"/>
       <c r="AC469" s="3"/>
     </row>
-    <row r="470" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -15477,7 +15472,7 @@
       <c r="AB470" s="3"/>
       <c r="AC470" s="3"/>
     </row>
-    <row r="471" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -15508,7 +15503,7 @@
       <c r="AB471" s="3"/>
       <c r="AC471" s="3"/>
     </row>
-    <row r="472" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -15539,7 +15534,7 @@
       <c r="AB472" s="3"/>
       <c r="AC472" s="3"/>
     </row>
-    <row r="473" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -15570,7 +15565,7 @@
       <c r="AB473" s="3"/>
       <c r="AC473" s="3"/>
     </row>
-    <row r="474" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -15601,7 +15596,7 @@
       <c r="AB474" s="3"/>
       <c r="AC474" s="3"/>
     </row>
-    <row r="475" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -15632,7 +15627,7 @@
       <c r="AB475" s="3"/>
       <c r="AC475" s="3"/>
     </row>
-    <row r="476" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -15663,7 +15658,7 @@
       <c r="AB476" s="3"/>
       <c r="AC476" s="3"/>
     </row>
-    <row r="477" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -15694,7 +15689,7 @@
       <c r="AB477" s="3"/>
       <c r="AC477" s="3"/>
     </row>
-    <row r="478" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -15725,7 +15720,7 @@
       <c r="AB478" s="3"/>
       <c r="AC478" s="3"/>
     </row>
-    <row r="479" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -15756,7 +15751,7 @@
       <c r="AB479" s="3"/>
       <c r="AC479" s="3"/>
     </row>
-    <row r="480" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -15787,7 +15782,7 @@
       <c r="AB480" s="3"/>
       <c r="AC480" s="3"/>
     </row>
-    <row r="481" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -15818,7 +15813,7 @@
       <c r="AB481" s="3"/>
       <c r="AC481" s="3"/>
     </row>
-    <row r="482" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -15849,7 +15844,7 @@
       <c r="AB482" s="3"/>
       <c r="AC482" s="3"/>
     </row>
-    <row r="483" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -15880,7 +15875,7 @@
       <c r="AB483" s="3"/>
       <c r="AC483" s="3"/>
     </row>
-    <row r="484" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -15911,7 +15906,7 @@
       <c r="AB484" s="3"/>
       <c r="AC484" s="3"/>
     </row>
-    <row r="485" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -15942,7 +15937,7 @@
       <c r="AB485" s="3"/>
       <c r="AC485" s="3"/>
     </row>
-    <row r="486" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -15973,7 +15968,7 @@
       <c r="AB486" s="3"/>
       <c r="AC486" s="3"/>
     </row>
-    <row r="487" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -16004,7 +15999,7 @@
       <c r="AB487" s="3"/>
       <c r="AC487" s="3"/>
     </row>
-    <row r="488" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -16035,7 +16030,7 @@
       <c r="AB488" s="3"/>
       <c r="AC488" s="3"/>
     </row>
-    <row r="489" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -16066,7 +16061,7 @@
       <c r="AB489" s="3"/>
       <c r="AC489" s="3"/>
     </row>
-    <row r="490" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -16097,7 +16092,7 @@
       <c r="AB490" s="3"/>
       <c r="AC490" s="3"/>
     </row>
-    <row r="491" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -16128,7 +16123,7 @@
       <c r="AB491" s="3"/>
       <c r="AC491" s="3"/>
     </row>
-    <row r="492" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -16159,7 +16154,7 @@
       <c r="AB492" s="3"/>
       <c r="AC492" s="3"/>
     </row>
-    <row r="493" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -16190,7 +16185,7 @@
       <c r="AB493" s="3"/>
       <c r="AC493" s="3"/>
     </row>
-    <row r="494" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -16221,7 +16216,7 @@
       <c r="AB494" s="3"/>
       <c r="AC494" s="3"/>
     </row>
-    <row r="495" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -16252,7 +16247,7 @@
       <c r="AB495" s="3"/>
       <c r="AC495" s="3"/>
     </row>
-    <row r="496" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -16283,7 +16278,7 @@
       <c r="AB496" s="3"/>
       <c r="AC496" s="3"/>
     </row>
-    <row r="497" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -16314,7 +16309,7 @@
       <c r="AB497" s="3"/>
       <c r="AC497" s="3"/>
     </row>
-    <row r="498" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -16345,7 +16340,7 @@
       <c r="AB498" s="3"/>
       <c r="AC498" s="3"/>
     </row>
-    <row r="499" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -16376,7 +16371,7 @@
       <c r="AB499" s="3"/>
       <c r="AC499" s="3"/>
     </row>
-    <row r="500" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -16407,7 +16402,7 @@
       <c r="AB500" s="3"/>
       <c r="AC500" s="3"/>
     </row>
-    <row r="501" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -16438,7 +16433,7 @@
       <c r="AB501" s="3"/>
       <c r="AC501" s="3"/>
     </row>
-    <row r="502" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -16469,7 +16464,7 @@
       <c r="AB502" s="3"/>
       <c r="AC502" s="3"/>
     </row>
-    <row r="503" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -16500,7 +16495,7 @@
       <c r="AB503" s="3"/>
       <c r="AC503" s="3"/>
     </row>
-    <row r="504" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -16531,7 +16526,7 @@
       <c r="AB504" s="3"/>
       <c r="AC504" s="3"/>
     </row>
-    <row r="505" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -16562,7 +16557,7 @@
       <c r="AB505" s="3"/>
       <c r="AC505" s="3"/>
     </row>
-    <row r="506" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -16593,7 +16588,7 @@
       <c r="AB506" s="3"/>
       <c r="AC506" s="3"/>
     </row>
-    <row r="507" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -16624,7 +16619,7 @@
       <c r="AB507" s="3"/>
       <c r="AC507" s="3"/>
     </row>
-    <row r="508" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -16655,7 +16650,7 @@
       <c r="AB508" s="3"/>
       <c r="AC508" s="3"/>
     </row>
-    <row r="509" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -16686,7 +16681,7 @@
       <c r="AB509" s="3"/>
       <c r="AC509" s="3"/>
     </row>
-    <row r="510" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -16717,7 +16712,7 @@
       <c r="AB510" s="3"/>
       <c r="AC510" s="3"/>
     </row>
-    <row r="511" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -16748,7 +16743,7 @@
       <c r="AB511" s="3"/>
       <c r="AC511" s="3"/>
     </row>
-    <row r="512" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -16779,7 +16774,7 @@
       <c r="AB512" s="3"/>
       <c r="AC512" s="3"/>
     </row>
-    <row r="513" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -16810,7 +16805,7 @@
       <c r="AB513" s="3"/>
       <c r="AC513" s="3"/>
     </row>
-    <row r="514" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -16841,7 +16836,7 @@
       <c r="AB514" s="3"/>
       <c r="AC514" s="3"/>
     </row>
-    <row r="515" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -16872,7 +16867,7 @@
       <c r="AB515" s="3"/>
       <c r="AC515" s="3"/>
     </row>
-    <row r="516" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -16903,7 +16898,7 @@
       <c r="AB516" s="3"/>
       <c r="AC516" s="3"/>
     </row>
-    <row r="517" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -16934,7 +16929,7 @@
       <c r="AB517" s="3"/>
       <c r="AC517" s="3"/>
     </row>
-    <row r="518" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -16965,7 +16960,7 @@
       <c r="AB518" s="3"/>
       <c r="AC518" s="3"/>
     </row>
-    <row r="519" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -16996,7 +16991,7 @@
       <c r="AB519" s="3"/>
       <c r="AC519" s="3"/>
     </row>
-    <row r="520" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -17027,7 +17022,7 @@
       <c r="AB520" s="3"/>
       <c r="AC520" s="3"/>
     </row>
-    <row r="521" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -17058,7 +17053,7 @@
       <c r="AB521" s="3"/>
       <c r="AC521" s="3"/>
     </row>
-    <row r="522" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -17089,7 +17084,7 @@
       <c r="AB522" s="3"/>
       <c r="AC522" s="3"/>
     </row>
-    <row r="523" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -17120,7 +17115,7 @@
       <c r="AB523" s="3"/>
       <c r="AC523" s="3"/>
     </row>
-    <row r="524" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -17151,7 +17146,7 @@
       <c r="AB524" s="3"/>
       <c r="AC524" s="3"/>
     </row>
-    <row r="525" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -17182,7 +17177,7 @@
       <c r="AB525" s="3"/>
       <c r="AC525" s="3"/>
     </row>
-    <row r="526" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -17213,7 +17208,7 @@
       <c r="AB526" s="3"/>
       <c r="AC526" s="3"/>
     </row>
-    <row r="527" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -17244,7 +17239,7 @@
       <c r="AB527" s="3"/>
       <c r="AC527" s="3"/>
     </row>
-    <row r="528" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -17275,7 +17270,7 @@
       <c r="AB528" s="3"/>
       <c r="AC528" s="3"/>
     </row>
-    <row r="529" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -17306,7 +17301,7 @@
       <c r="AB529" s="3"/>
       <c r="AC529" s="3"/>
     </row>
-    <row r="530" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -17337,7 +17332,7 @@
       <c r="AB530" s="3"/>
       <c r="AC530" s="3"/>
     </row>
-    <row r="531" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -17368,7 +17363,7 @@
       <c r="AB531" s="3"/>
       <c r="AC531" s="3"/>
     </row>
-    <row r="532" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -17399,7 +17394,7 @@
       <c r="AB532" s="3"/>
       <c r="AC532" s="3"/>
     </row>
-    <row r="533" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -17430,7 +17425,7 @@
       <c r="AB533" s="3"/>
       <c r="AC533" s="3"/>
     </row>
-    <row r="534" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -17461,7 +17456,7 @@
       <c r="AB534" s="3"/>
       <c r="AC534" s="3"/>
     </row>
-    <row r="535" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -17492,7 +17487,7 @@
       <c r="AB535" s="3"/>
       <c r="AC535" s="3"/>
     </row>
-    <row r="536" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -17523,7 +17518,7 @@
       <c r="AB536" s="3"/>
       <c r="AC536" s="3"/>
     </row>
-    <row r="537" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -17554,7 +17549,7 @@
       <c r="AB537" s="3"/>
       <c r="AC537" s="3"/>
     </row>
-    <row r="538" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -17585,7 +17580,7 @@
       <c r="AB538" s="3"/>
       <c r="AC538" s="3"/>
     </row>
-    <row r="539" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -17616,7 +17611,7 @@
       <c r="AB539" s="3"/>
       <c r="AC539" s="3"/>
     </row>
-    <row r="540" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -17647,7 +17642,7 @@
       <c r="AB540" s="3"/>
       <c r="AC540" s="3"/>
     </row>
-    <row r="541" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -17678,7 +17673,7 @@
       <c r="AB541" s="3"/>
       <c r="AC541" s="3"/>
     </row>
-    <row r="542" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -17709,7 +17704,7 @@
       <c r="AB542" s="3"/>
       <c r="AC542" s="3"/>
     </row>
-    <row r="543" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -17740,7 +17735,7 @@
       <c r="AB543" s="3"/>
       <c r="AC543" s="3"/>
     </row>
-    <row r="544" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -17771,7 +17766,7 @@
       <c r="AB544" s="3"/>
       <c r="AC544" s="3"/>
     </row>
-    <row r="545" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -17802,7 +17797,7 @@
       <c r="AB545" s="3"/>
       <c r="AC545" s="3"/>
     </row>
-    <row r="546" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -17833,7 +17828,7 @@
       <c r="AB546" s="3"/>
       <c r="AC546" s="3"/>
     </row>
-    <row r="547" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -17864,7 +17859,7 @@
       <c r="AB547" s="3"/>
       <c r="AC547" s="3"/>
     </row>
-    <row r="548" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -17895,7 +17890,7 @@
       <c r="AB548" s="3"/>
       <c r="AC548" s="3"/>
     </row>
-    <row r="549" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -17926,7 +17921,7 @@
       <c r="AB549" s="3"/>
       <c r="AC549" s="3"/>
     </row>
-    <row r="550" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -17957,7 +17952,7 @@
       <c r="AB550" s="3"/>
       <c r="AC550" s="3"/>
     </row>
-    <row r="551" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -17988,7 +17983,7 @@
       <c r="AB551" s="3"/>
       <c r="AC551" s="3"/>
     </row>
-    <row r="552" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -18019,7 +18014,7 @@
       <c r="AB552" s="3"/>
       <c r="AC552" s="3"/>
     </row>
-    <row r="553" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -18050,7 +18045,7 @@
       <c r="AB553" s="3"/>
       <c r="AC553" s="3"/>
     </row>
-    <row r="554" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -18081,7 +18076,7 @@
       <c r="AB554" s="3"/>
       <c r="AC554" s="3"/>
     </row>
-    <row r="555" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -18112,7 +18107,7 @@
       <c r="AB555" s="3"/>
       <c r="AC555" s="3"/>
     </row>
-    <row r="556" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -18143,7 +18138,7 @@
       <c r="AB556" s="3"/>
       <c r="AC556" s="3"/>
     </row>
-    <row r="557" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -18174,7 +18169,7 @@
       <c r="AB557" s="3"/>
       <c r="AC557" s="3"/>
     </row>
-    <row r="558" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -18205,7 +18200,7 @@
       <c r="AB558" s="3"/>
       <c r="AC558" s="3"/>
     </row>
-    <row r="559" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -18236,7 +18231,7 @@
       <c r="AB559" s="3"/>
       <c r="AC559" s="3"/>
     </row>
-    <row r="560" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -18267,7 +18262,7 @@
       <c r="AB560" s="3"/>
       <c r="AC560" s="3"/>
     </row>
-    <row r="561" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -18298,7 +18293,7 @@
       <c r="AB561" s="3"/>
       <c r="AC561" s="3"/>
     </row>
-    <row r="562" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -18329,7 +18324,7 @@
       <c r="AB562" s="3"/>
       <c r="AC562" s="3"/>
     </row>
-    <row r="563" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -18360,7 +18355,7 @@
       <c r="AB563" s="3"/>
       <c r="AC563" s="3"/>
     </row>
-    <row r="564" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -18391,7 +18386,7 @@
       <c r="AB564" s="3"/>
       <c r="AC564" s="3"/>
     </row>
-    <row r="565" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -18422,7 +18417,7 @@
       <c r="AB565" s="3"/>
       <c r="AC565" s="3"/>
     </row>
-    <row r="566" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -18453,7 +18448,7 @@
       <c r="AB566" s="3"/>
       <c r="AC566" s="3"/>
     </row>
-    <row r="567" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -18484,7 +18479,7 @@
       <c r="AB567" s="3"/>
       <c r="AC567" s="3"/>
     </row>
-    <row r="568" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -18515,7 +18510,7 @@
       <c r="AB568" s="3"/>
       <c r="AC568" s="3"/>
     </row>
-    <row r="569" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -18546,7 +18541,7 @@
       <c r="AB569" s="3"/>
       <c r="AC569" s="3"/>
     </row>
-    <row r="570" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -18577,7 +18572,7 @@
       <c r="AB570" s="3"/>
       <c r="AC570" s="3"/>
     </row>
-    <row r="571" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -18608,7 +18603,7 @@
       <c r="AB571" s="3"/>
       <c r="AC571" s="3"/>
     </row>
-    <row r="572" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -18639,7 +18634,7 @@
       <c r="AB572" s="3"/>
       <c r="AC572" s="3"/>
     </row>
-    <row r="573" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -18670,7 +18665,7 @@
       <c r="AB573" s="3"/>
       <c r="AC573" s="3"/>
     </row>
-    <row r="574" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -18701,7 +18696,7 @@
       <c r="AB574" s="3"/>
       <c r="AC574" s="3"/>
     </row>
-    <row r="575" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -18732,7 +18727,7 @@
       <c r="AB575" s="3"/>
       <c r="AC575" s="3"/>
     </row>
-    <row r="576" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -18763,7 +18758,7 @@
       <c r="AB576" s="3"/>
       <c r="AC576" s="3"/>
     </row>
-    <row r="577" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -18794,7 +18789,7 @@
       <c r="AB577" s="3"/>
       <c r="AC577" s="3"/>
     </row>
-    <row r="578" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -18825,7 +18820,7 @@
       <c r="AB578" s="3"/>
       <c r="AC578" s="3"/>
     </row>
-    <row r="579" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -18856,7 +18851,7 @@
       <c r="AB579" s="3"/>
       <c r="AC579" s="3"/>
     </row>
-    <row r="580" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -18887,7 +18882,7 @@
       <c r="AB580" s="3"/>
       <c r="AC580" s="3"/>
     </row>
-    <row r="581" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -18918,7 +18913,7 @@
       <c r="AB581" s="3"/>
       <c r="AC581" s="3"/>
     </row>
-    <row r="582" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -18949,7 +18944,7 @@
       <c r="AB582" s="3"/>
       <c r="AC582" s="3"/>
     </row>
-    <row r="583" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -18980,7 +18975,7 @@
       <c r="AB583" s="3"/>
       <c r="AC583" s="3"/>
     </row>
-    <row r="584" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -19011,7 +19006,7 @@
       <c r="AB584" s="3"/>
       <c r="AC584" s="3"/>
     </row>
-    <row r="585" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -19042,7 +19037,7 @@
       <c r="AB585" s="3"/>
       <c r="AC585" s="3"/>
     </row>
-    <row r="586" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -19073,7 +19068,7 @@
       <c r="AB586" s="3"/>
       <c r="AC586" s="3"/>
     </row>
-    <row r="587" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -19104,7 +19099,7 @@
       <c r="AB587" s="3"/>
       <c r="AC587" s="3"/>
     </row>
-    <row r="588" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -19135,7 +19130,7 @@
       <c r="AB588" s="3"/>
       <c r="AC588" s="3"/>
     </row>
-    <row r="589" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -19166,7 +19161,7 @@
       <c r="AB589" s="3"/>
       <c r="AC589" s="3"/>
     </row>
-    <row r="590" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -19197,7 +19192,7 @@
       <c r="AB590" s="3"/>
       <c r="AC590" s="3"/>
     </row>
-    <row r="591" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -19228,7 +19223,7 @@
       <c r="AB591" s="3"/>
       <c r="AC591" s="3"/>
     </row>
-    <row r="592" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -19259,7 +19254,7 @@
       <c r="AB592" s="3"/>
       <c r="AC592" s="3"/>
     </row>
-    <row r="593" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -19290,7 +19285,7 @@
       <c r="AB593" s="3"/>
       <c r="AC593" s="3"/>
     </row>
-    <row r="594" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -19321,7 +19316,7 @@
       <c r="AB594" s="3"/>
       <c r="AC594" s="3"/>
     </row>
-    <row r="595" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -19352,7 +19347,7 @@
       <c r="AB595" s="3"/>
       <c r="AC595" s="3"/>
     </row>
-    <row r="596" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -19383,7 +19378,7 @@
       <c r="AB596" s="3"/>
       <c r="AC596" s="3"/>
     </row>
-    <row r="597" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -19414,7 +19409,7 @@
       <c r="AB597" s="3"/>
       <c r="AC597" s="3"/>
     </row>
-    <row r="598" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -19445,7 +19440,7 @@
       <c r="AB598" s="3"/>
       <c r="AC598" s="3"/>
     </row>
-    <row r="599" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -19476,7 +19471,7 @@
       <c r="AB599" s="3"/>
       <c r="AC599" s="3"/>
     </row>
-    <row r="600" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -19507,7 +19502,7 @@
       <c r="AB600" s="3"/>
       <c r="AC600" s="3"/>
     </row>
-    <row r="601" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -19538,7 +19533,7 @@
       <c r="AB601" s="3"/>
       <c r="AC601" s="3"/>
     </row>
-    <row r="602" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -19569,7 +19564,7 @@
       <c r="AB602" s="3"/>
       <c r="AC602" s="3"/>
     </row>
-    <row r="603" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -19600,7 +19595,7 @@
       <c r="AB603" s="3"/>
       <c r="AC603" s="3"/>
     </row>
-    <row r="604" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -19631,7 +19626,7 @@
       <c r="AB604" s="3"/>
       <c r="AC604" s="3"/>
     </row>
-    <row r="605" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -19662,7 +19657,7 @@
       <c r="AB605" s="3"/>
       <c r="AC605" s="3"/>
     </row>
-    <row r="606" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -19693,7 +19688,7 @@
       <c r="AB606" s="3"/>
       <c r="AC606" s="3"/>
     </row>
-    <row r="607" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -19724,7 +19719,7 @@
       <c r="AB607" s="3"/>
       <c r="AC607" s="3"/>
     </row>
-    <row r="608" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -19755,7 +19750,7 @@
       <c r="AB608" s="3"/>
       <c r="AC608" s="3"/>
     </row>
-    <row r="609" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -19786,7 +19781,7 @@
       <c r="AB609" s="3"/>
       <c r="AC609" s="3"/>
     </row>
-    <row r="610" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -19817,7 +19812,7 @@
       <c r="AB610" s="3"/>
       <c r="AC610" s="3"/>
     </row>
-    <row r="611" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -19848,7 +19843,7 @@
       <c r="AB611" s="3"/>
       <c r="AC611" s="3"/>
     </row>
-    <row r="612" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -19879,7 +19874,7 @@
       <c r="AB612" s="3"/>
       <c r="AC612" s="3"/>
     </row>
-    <row r="613" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -19910,7 +19905,7 @@
       <c r="AB613" s="3"/>
       <c r="AC613" s="3"/>
     </row>
-    <row r="614" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -19941,7 +19936,7 @@
       <c r="AB614" s="3"/>
       <c r="AC614" s="3"/>
     </row>
-    <row r="615" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -19972,7 +19967,7 @@
       <c r="AB615" s="3"/>
       <c r="AC615" s="3"/>
     </row>
-    <row r="616" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -20003,7 +19998,7 @@
       <c r="AB616" s="3"/>
       <c r="AC616" s="3"/>
     </row>
-    <row r="617" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -20034,7 +20029,7 @@
       <c r="AB617" s="3"/>
       <c r="AC617" s="3"/>
     </row>
-    <row r="618" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -20065,7 +20060,7 @@
       <c r="AB618" s="3"/>
       <c r="AC618" s="3"/>
     </row>
-    <row r="619" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -20096,7 +20091,7 @@
       <c r="AB619" s="3"/>
       <c r="AC619" s="3"/>
     </row>
-    <row r="620" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -20127,7 +20122,7 @@
       <c r="AB620" s="3"/>
       <c r="AC620" s="3"/>
     </row>
-    <row r="621" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -20158,7 +20153,7 @@
       <c r="AB621" s="3"/>
       <c r="AC621" s="3"/>
     </row>
-    <row r="622" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -20189,7 +20184,7 @@
       <c r="AB622" s="3"/>
       <c r="AC622" s="3"/>
     </row>
-    <row r="623" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -20220,7 +20215,7 @@
       <c r="AB623" s="3"/>
       <c r="AC623" s="3"/>
     </row>
-    <row r="624" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -20251,7 +20246,7 @@
       <c r="AB624" s="3"/>
       <c r="AC624" s="3"/>
     </row>
-    <row r="625" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -20282,7 +20277,7 @@
       <c r="AB625" s="3"/>
       <c r="AC625" s="3"/>
     </row>
-    <row r="626" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -20313,7 +20308,7 @@
       <c r="AB626" s="3"/>
       <c r="AC626" s="3"/>
     </row>
-    <row r="627" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -20344,7 +20339,7 @@
       <c r="AB627" s="3"/>
       <c r="AC627" s="3"/>
     </row>
-    <row r="628" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -20375,7 +20370,7 @@
       <c r="AB628" s="3"/>
       <c r="AC628" s="3"/>
     </row>
-    <row r="629" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -20406,7 +20401,7 @@
       <c r="AB629" s="3"/>
       <c r="AC629" s="3"/>
     </row>
-    <row r="630" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -20437,7 +20432,7 @@
       <c r="AB630" s="3"/>
       <c r="AC630" s="3"/>
     </row>
-    <row r="631" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -20468,7 +20463,7 @@
       <c r="AB631" s="3"/>
       <c r="AC631" s="3"/>
     </row>
-    <row r="632" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -20499,7 +20494,7 @@
       <c r="AB632" s="3"/>
       <c r="AC632" s="3"/>
     </row>
-    <row r="633" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -20530,7 +20525,7 @@
       <c r="AB633" s="3"/>
       <c r="AC633" s="3"/>
     </row>
-    <row r="634" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -20561,7 +20556,7 @@
       <c r="AB634" s="3"/>
       <c r="AC634" s="3"/>
     </row>
-    <row r="635" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -20592,7 +20587,7 @@
       <c r="AB635" s="3"/>
       <c r="AC635" s="3"/>
     </row>
-    <row r="636" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -20623,7 +20618,7 @@
       <c r="AB636" s="3"/>
       <c r="AC636" s="3"/>
     </row>
-    <row r="637" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -20654,7 +20649,7 @@
       <c r="AB637" s="3"/>
       <c r="AC637" s="3"/>
     </row>
-    <row r="638" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -20685,7 +20680,7 @@
       <c r="AB638" s="3"/>
       <c r="AC638" s="3"/>
     </row>
-    <row r="639" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -20716,7 +20711,7 @@
       <c r="AB639" s="3"/>
       <c r="AC639" s="3"/>
     </row>
-    <row r="640" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -20747,7 +20742,7 @@
       <c r="AB640" s="3"/>
       <c r="AC640" s="3"/>
     </row>
-    <row r="641" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -20778,7 +20773,7 @@
       <c r="AB641" s="3"/>
       <c r="AC641" s="3"/>
     </row>
-    <row r="642" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -20809,7 +20804,7 @@
       <c r="AB642" s="3"/>
       <c r="AC642" s="3"/>
     </row>
-    <row r="643" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -20840,7 +20835,7 @@
       <c r="AB643" s="3"/>
       <c r="AC643" s="3"/>
     </row>
-    <row r="644" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -20871,7 +20866,7 @@
       <c r="AB644" s="3"/>
       <c r="AC644" s="3"/>
     </row>
-    <row r="645" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -20902,7 +20897,7 @@
       <c r="AB645" s="3"/>
       <c r="AC645" s="3"/>
     </row>
-    <row r="646" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -20933,7 +20928,7 @@
       <c r="AB646" s="3"/>
       <c r="AC646" s="3"/>
     </row>
-    <row r="647" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -20964,7 +20959,7 @@
       <c r="AB647" s="3"/>
       <c r="AC647" s="3"/>
     </row>
-    <row r="648" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -20995,7 +20990,7 @@
       <c r="AB648" s="3"/>
       <c r="AC648" s="3"/>
     </row>
-    <row r="649" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -21026,7 +21021,7 @@
       <c r="AB649" s="3"/>
       <c r="AC649" s="3"/>
     </row>
-    <row r="650" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -21057,7 +21052,7 @@
       <c r="AB650" s="3"/>
       <c r="AC650" s="3"/>
     </row>
-    <row r="651" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -21088,7 +21083,7 @@
       <c r="AB651" s="3"/>
       <c r="AC651" s="3"/>
     </row>
-    <row r="652" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -21119,7 +21114,7 @@
       <c r="AB652" s="3"/>
       <c r="AC652" s="3"/>
     </row>
-    <row r="653" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -21150,7 +21145,7 @@
       <c r="AB653" s="3"/>
       <c r="AC653" s="3"/>
     </row>
-    <row r="654" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -21181,7 +21176,7 @@
       <c r="AB654" s="3"/>
       <c r="AC654" s="3"/>
     </row>
-    <row r="655" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -21212,7 +21207,7 @@
       <c r="AB655" s="3"/>
       <c r="AC655" s="3"/>
     </row>
-    <row r="656" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -21243,7 +21238,7 @@
       <c r="AB656" s="3"/>
       <c r="AC656" s="3"/>
     </row>
-    <row r="657" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -21274,7 +21269,7 @@
       <c r="AB657" s="3"/>
       <c r="AC657" s="3"/>
     </row>
-    <row r="658" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -21305,7 +21300,7 @@
       <c r="AB658" s="3"/>
       <c r="AC658" s="3"/>
     </row>
-    <row r="659" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -21336,7 +21331,7 @@
       <c r="AB659" s="3"/>
       <c r="AC659" s="3"/>
     </row>
-    <row r="660" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -21367,7 +21362,7 @@
       <c r="AB660" s="3"/>
       <c r="AC660" s="3"/>
     </row>
-    <row r="661" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -21398,7 +21393,7 @@
       <c r="AB661" s="3"/>
       <c r="AC661" s="3"/>
     </row>
-    <row r="662" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -21429,7 +21424,7 @@
       <c r="AB662" s="3"/>
       <c r="AC662" s="3"/>
     </row>
-    <row r="663" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -21460,7 +21455,7 @@
       <c r="AB663" s="3"/>
       <c r="AC663" s="3"/>
     </row>
-    <row r="664" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -21491,7 +21486,7 @@
       <c r="AB664" s="3"/>
       <c r="AC664" s="3"/>
     </row>
-    <row r="665" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -21522,7 +21517,7 @@
       <c r="AB665" s="3"/>
       <c r="AC665" s="3"/>
     </row>
-    <row r="666" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -21553,7 +21548,7 @@
       <c r="AB666" s="3"/>
       <c r="AC666" s="3"/>
     </row>
-    <row r="667" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -21584,7 +21579,7 @@
       <c r="AB667" s="3"/>
       <c r="AC667" s="3"/>
     </row>
-    <row r="668" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -21615,7 +21610,7 @@
       <c r="AB668" s="3"/>
       <c r="AC668" s="3"/>
     </row>
-    <row r="669" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -21646,7 +21641,7 @@
       <c r="AB669" s="3"/>
       <c r="AC669" s="3"/>
     </row>
-    <row r="670" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -21677,7 +21672,7 @@
       <c r="AB670" s="3"/>
       <c r="AC670" s="3"/>
     </row>
-    <row r="671" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -21708,7 +21703,7 @@
       <c r="AB671" s="3"/>
       <c r="AC671" s="3"/>
     </row>
-    <row r="672" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -21739,7 +21734,7 @@
       <c r="AB672" s="3"/>
       <c r="AC672" s="3"/>
     </row>
-    <row r="673" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -21770,7 +21765,7 @@
       <c r="AB673" s="3"/>
       <c r="AC673" s="3"/>
     </row>
-    <row r="674" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -21801,7 +21796,7 @@
       <c r="AB674" s="3"/>
       <c r="AC674" s="3"/>
     </row>
-    <row r="675" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -21832,7 +21827,7 @@
       <c r="AB675" s="3"/>
       <c r="AC675" s="3"/>
     </row>
-    <row r="676" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -21863,7 +21858,7 @@
       <c r="AB676" s="3"/>
       <c r="AC676" s="3"/>
     </row>
-    <row r="677" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -21894,7 +21889,7 @@
       <c r="AB677" s="3"/>
       <c r="AC677" s="3"/>
     </row>
-    <row r="678" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -21925,7 +21920,7 @@
       <c r="AB678" s="3"/>
       <c r="AC678" s="3"/>
     </row>
-    <row r="679" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -21956,7 +21951,7 @@
       <c r="AB679" s="3"/>
       <c r="AC679" s="3"/>
     </row>
-    <row r="680" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -21987,7 +21982,7 @@
       <c r="AB680" s="3"/>
       <c r="AC680" s="3"/>
     </row>
-    <row r="681" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -22018,7 +22013,7 @@
       <c r="AB681" s="3"/>
       <c r="AC681" s="3"/>
     </row>
-    <row r="682" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -22049,7 +22044,7 @@
       <c r="AB682" s="3"/>
       <c r="AC682" s="3"/>
     </row>
-    <row r="683" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -22080,7 +22075,7 @@
       <c r="AB683" s="3"/>
       <c r="AC683" s="3"/>
     </row>
-    <row r="684" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -22111,7 +22106,7 @@
       <c r="AB684" s="3"/>
       <c r="AC684" s="3"/>
     </row>
-    <row r="685" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -22142,7 +22137,7 @@
       <c r="AB685" s="3"/>
       <c r="AC685" s="3"/>
     </row>
-    <row r="686" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -22173,7 +22168,7 @@
       <c r="AB686" s="3"/>
       <c r="AC686" s="3"/>
     </row>
-    <row r="687" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -22204,7 +22199,7 @@
       <c r="AB687" s="3"/>
       <c r="AC687" s="3"/>
     </row>
-    <row r="688" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -22235,7 +22230,7 @@
       <c r="AB688" s="3"/>
       <c r="AC688" s="3"/>
     </row>
-    <row r="689" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -22266,7 +22261,7 @@
       <c r="AB689" s="3"/>
       <c r="AC689" s="3"/>
     </row>
-    <row r="690" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -22297,7 +22292,7 @@
       <c r="AB690" s="3"/>
       <c r="AC690" s="3"/>
     </row>
-    <row r="691" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -22328,7 +22323,7 @@
       <c r="AB691" s="3"/>
       <c r="AC691" s="3"/>
     </row>
-    <row r="692" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -22359,7 +22354,7 @@
       <c r="AB692" s="3"/>
       <c r="AC692" s="3"/>
     </row>
-    <row r="693" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -22390,7 +22385,7 @@
       <c r="AB693" s="3"/>
       <c r="AC693" s="3"/>
     </row>
-    <row r="694" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -22421,7 +22416,7 @@
       <c r="AB694" s="3"/>
       <c r="AC694" s="3"/>
     </row>
-    <row r="695" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -22452,7 +22447,7 @@
       <c r="AB695" s="3"/>
       <c r="AC695" s="3"/>
     </row>
-    <row r="696" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -22483,7 +22478,7 @@
       <c r="AB696" s="3"/>
       <c r="AC696" s="3"/>
     </row>
-    <row r="697" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -22514,7 +22509,7 @@
       <c r="AB697" s="3"/>
       <c r="AC697" s="3"/>
     </row>
-    <row r="698" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -22545,7 +22540,7 @@
       <c r="AB698" s="3"/>
       <c r="AC698" s="3"/>
     </row>
-    <row r="699" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -22576,7 +22571,7 @@
       <c r="AB699" s="3"/>
       <c r="AC699" s="3"/>
     </row>
-    <row r="700" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -22607,7 +22602,7 @@
       <c r="AB700" s="3"/>
       <c r="AC700" s="3"/>
     </row>
-    <row r="701" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -22638,7 +22633,7 @@
       <c r="AB701" s="3"/>
       <c r="AC701" s="3"/>
     </row>
-    <row r="702" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -22669,7 +22664,7 @@
       <c r="AB702" s="3"/>
       <c r="AC702" s="3"/>
     </row>
-    <row r="703" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -22700,7 +22695,7 @@
       <c r="AB703" s="3"/>
       <c r="AC703" s="3"/>
     </row>
-    <row r="704" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -22731,7 +22726,7 @@
       <c r="AB704" s="3"/>
       <c r="AC704" s="3"/>
     </row>
-    <row r="705" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -22762,7 +22757,7 @@
       <c r="AB705" s="3"/>
       <c r="AC705" s="3"/>
     </row>
-    <row r="706" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -22793,7 +22788,7 @@
       <c r="AB706" s="3"/>
       <c r="AC706" s="3"/>
     </row>
-    <row r="707" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -22824,7 +22819,7 @@
       <c r="AB707" s="3"/>
       <c r="AC707" s="3"/>
     </row>
-    <row r="708" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -22855,7 +22850,7 @@
       <c r="AB708" s="3"/>
       <c r="AC708" s="3"/>
     </row>
-    <row r="709" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -22886,7 +22881,7 @@
       <c r="AB709" s="3"/>
       <c r="AC709" s="3"/>
     </row>
-    <row r="710" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -22917,7 +22912,7 @@
       <c r="AB710" s="3"/>
       <c r="AC710" s="3"/>
     </row>
-    <row r="711" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -22948,7 +22943,7 @@
       <c r="AB711" s="3"/>
       <c r="AC711" s="3"/>
     </row>
-    <row r="712" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -22979,7 +22974,7 @@
       <c r="AB712" s="3"/>
       <c r="AC712" s="3"/>
     </row>
-    <row r="713" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -23010,7 +23005,7 @@
       <c r="AB713" s="3"/>
       <c r="AC713" s="3"/>
     </row>
-    <row r="714" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -23041,7 +23036,7 @@
       <c r="AB714" s="3"/>
       <c r="AC714" s="3"/>
     </row>
-    <row r="715" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -23072,7 +23067,7 @@
       <c r="AB715" s="3"/>
       <c r="AC715" s="3"/>
     </row>
-    <row r="716" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -23103,7 +23098,7 @@
       <c r="AB716" s="3"/>
       <c r="AC716" s="3"/>
     </row>
-    <row r="717" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -23134,7 +23129,7 @@
       <c r="AB717" s="3"/>
       <c r="AC717" s="3"/>
     </row>
-    <row r="718" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -23165,7 +23160,7 @@
       <c r="AB718" s="3"/>
       <c r="AC718" s="3"/>
     </row>
-    <row r="719" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -23196,7 +23191,7 @@
       <c r="AB719" s="3"/>
       <c r="AC719" s="3"/>
     </row>
-    <row r="720" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -23227,7 +23222,7 @@
       <c r="AB720" s="3"/>
       <c r="AC720" s="3"/>
     </row>
-    <row r="721" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -23258,7 +23253,7 @@
       <c r="AB721" s="3"/>
       <c r="AC721" s="3"/>
     </row>
-    <row r="722" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -23289,7 +23284,7 @@
       <c r="AB722" s="3"/>
       <c r="AC722" s="3"/>
     </row>
-    <row r="723" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -23320,7 +23315,7 @@
       <c r="AB723" s="3"/>
       <c r="AC723" s="3"/>
     </row>
-    <row r="724" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -23351,7 +23346,7 @@
       <c r="AB724" s="3"/>
       <c r="AC724" s="3"/>
     </row>
-    <row r="725" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -23382,7 +23377,7 @@
       <c r="AB725" s="3"/>
       <c r="AC725" s="3"/>
     </row>
-    <row r="726" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -23413,7 +23408,7 @@
       <c r="AB726" s="3"/>
       <c r="AC726" s="3"/>
     </row>
-    <row r="727" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -23444,7 +23439,7 @@
       <c r="AB727" s="3"/>
       <c r="AC727" s="3"/>
     </row>
-    <row r="728" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -23475,7 +23470,7 @@
       <c r="AB728" s="3"/>
       <c r="AC728" s="3"/>
     </row>
-    <row r="729" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -23506,7 +23501,7 @@
       <c r="AB729" s="3"/>
       <c r="AC729" s="3"/>
     </row>
-    <row r="730" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -23537,7 +23532,7 @@
       <c r="AB730" s="3"/>
       <c r="AC730" s="3"/>
     </row>
-    <row r="731" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -23568,7 +23563,7 @@
       <c r="AB731" s="3"/>
       <c r="AC731" s="3"/>
     </row>
-    <row r="732" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -23599,7 +23594,7 @@
       <c r="AB732" s="3"/>
       <c r="AC732" s="3"/>
     </row>
-    <row r="733" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -23630,7 +23625,7 @@
       <c r="AB733" s="3"/>
       <c r="AC733" s="3"/>
     </row>
-    <row r="734" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -23661,7 +23656,7 @@
       <c r="AB734" s="3"/>
       <c r="AC734" s="3"/>
     </row>
-    <row r="735" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -23692,7 +23687,7 @@
       <c r="AB735" s="3"/>
       <c r="AC735" s="3"/>
     </row>
-    <row r="736" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -23723,7 +23718,7 @@
       <c r="AB736" s="3"/>
       <c r="AC736" s="3"/>
     </row>
-    <row r="737" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -23754,7 +23749,7 @@
       <c r="AB737" s="3"/>
       <c r="AC737" s="3"/>
     </row>
-    <row r="738" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -23785,7 +23780,7 @@
       <c r="AB738" s="3"/>
       <c r="AC738" s="3"/>
     </row>
-    <row r="739" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -23816,7 +23811,7 @@
       <c r="AB739" s="3"/>
       <c r="AC739" s="3"/>
     </row>
-    <row r="740" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -23847,7 +23842,7 @@
       <c r="AB740" s="3"/>
       <c r="AC740" s="3"/>
     </row>
-    <row r="741" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -23878,7 +23873,7 @@
       <c r="AB741" s="3"/>
       <c r="AC741" s="3"/>
     </row>
-    <row r="742" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -23909,7 +23904,7 @@
       <c r="AB742" s="3"/>
       <c r="AC742" s="3"/>
     </row>
-    <row r="743" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -23940,7 +23935,7 @@
       <c r="AB743" s="3"/>
       <c r="AC743" s="3"/>
     </row>
-    <row r="744" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -23971,7 +23966,7 @@
       <c r="AB744" s="3"/>
       <c r="AC744" s="3"/>
     </row>
-    <row r="745" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -24002,7 +23997,7 @@
       <c r="AB745" s="3"/>
       <c r="AC745" s="3"/>
     </row>
-    <row r="746" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -24033,7 +24028,7 @@
       <c r="AB746" s="3"/>
       <c r="AC746" s="3"/>
     </row>
-    <row r="747" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -24064,7 +24059,7 @@
       <c r="AB747" s="3"/>
       <c r="AC747" s="3"/>
     </row>
-    <row r="748" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -24095,7 +24090,7 @@
       <c r="AB748" s="3"/>
       <c r="AC748" s="3"/>
     </row>
-    <row r="749" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -24126,7 +24121,7 @@
       <c r="AB749" s="3"/>
       <c r="AC749" s="3"/>
     </row>
-    <row r="750" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -24157,7 +24152,7 @@
       <c r="AB750" s="3"/>
       <c r="AC750" s="3"/>
     </row>
-    <row r="751" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -24188,7 +24183,7 @@
       <c r="AB751" s="3"/>
       <c r="AC751" s="3"/>
     </row>
-    <row r="752" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -24219,7 +24214,7 @@
       <c r="AB752" s="3"/>
       <c r="AC752" s="3"/>
     </row>
-    <row r="753" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -24250,7 +24245,7 @@
       <c r="AB753" s="3"/>
       <c r="AC753" s="3"/>
     </row>
-    <row r="754" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -24281,7 +24276,7 @@
       <c r="AB754" s="3"/>
       <c r="AC754" s="3"/>
     </row>
-    <row r="755" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -24312,7 +24307,7 @@
       <c r="AB755" s="3"/>
       <c r="AC755" s="3"/>
     </row>
-    <row r="756" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -24343,7 +24338,7 @@
       <c r="AB756" s="3"/>
       <c r="AC756" s="3"/>
     </row>
-    <row r="757" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -24374,7 +24369,7 @@
       <c r="AB757" s="3"/>
       <c r="AC757" s="3"/>
     </row>
-    <row r="758" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -24405,7 +24400,7 @@
       <c r="AB758" s="3"/>
       <c r="AC758" s="3"/>
     </row>
-    <row r="759" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -24436,7 +24431,7 @@
       <c r="AB759" s="3"/>
       <c r="AC759" s="3"/>
     </row>
-    <row r="760" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -24467,7 +24462,7 @@
       <c r="AB760" s="3"/>
       <c r="AC760" s="3"/>
     </row>
-    <row r="761" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -24498,7 +24493,7 @@
       <c r="AB761" s="3"/>
       <c r="AC761" s="3"/>
     </row>
-    <row r="762" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -24529,7 +24524,7 @@
       <c r="AB762" s="3"/>
       <c r="AC762" s="3"/>
     </row>
-    <row r="763" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -24560,7 +24555,7 @@
       <c r="AB763" s="3"/>
       <c r="AC763" s="3"/>
     </row>
-    <row r="764" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -24591,7 +24586,7 @@
       <c r="AB764" s="3"/>
       <c r="AC764" s="3"/>
     </row>
-    <row r="765" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -24622,7 +24617,7 @@
       <c r="AB765" s="3"/>
       <c r="AC765" s="3"/>
     </row>
-    <row r="766" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -24653,7 +24648,7 @@
       <c r="AB766" s="3"/>
       <c r="AC766" s="3"/>
     </row>
-    <row r="767" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -24684,7 +24679,7 @@
       <c r="AB767" s="3"/>
       <c r="AC767" s="3"/>
     </row>
-    <row r="768" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -24715,7 +24710,7 @@
       <c r="AB768" s="3"/>
       <c r="AC768" s="3"/>
     </row>
-    <row r="769" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -24746,7 +24741,7 @@
       <c r="AB769" s="3"/>
       <c r="AC769" s="3"/>
     </row>
-    <row r="770" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -24777,7 +24772,7 @@
       <c r="AB770" s="3"/>
       <c r="AC770" s="3"/>
     </row>
-    <row r="771" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -24808,7 +24803,7 @@
       <c r="AB771" s="3"/>
       <c r="AC771" s="3"/>
     </row>
-    <row r="772" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -24839,7 +24834,7 @@
       <c r="AB772" s="3"/>
       <c r="AC772" s="3"/>
     </row>
-    <row r="773" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -24870,7 +24865,7 @@
       <c r="AB773" s="3"/>
       <c r="AC773" s="3"/>
     </row>
-    <row r="774" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -24901,7 +24896,7 @@
       <c r="AB774" s="3"/>
       <c r="AC774" s="3"/>
     </row>
-    <row r="775" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -24932,7 +24927,7 @@
       <c r="AB775" s="3"/>
       <c r="AC775" s="3"/>
     </row>
-    <row r="776" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -24963,7 +24958,7 @@
       <c r="AB776" s="3"/>
       <c r="AC776" s="3"/>
     </row>
-    <row r="777" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -24994,7 +24989,7 @@
       <c r="AB777" s="3"/>
       <c r="AC777" s="3"/>
     </row>
-    <row r="778" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -25025,7 +25020,7 @@
       <c r="AB778" s="3"/>
       <c r="AC778" s="3"/>
     </row>
-    <row r="779" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -25056,7 +25051,7 @@
       <c r="AB779" s="3"/>
       <c r="AC779" s="3"/>
     </row>
-    <row r="780" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -25087,7 +25082,7 @@
       <c r="AB780" s="3"/>
       <c r="AC780" s="3"/>
     </row>
-    <row r="781" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -25118,7 +25113,7 @@
       <c r="AB781" s="3"/>
       <c r="AC781" s="3"/>
     </row>
-    <row r="782" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -25149,7 +25144,7 @@
       <c r="AB782" s="3"/>
       <c r="AC782" s="3"/>
     </row>
-    <row r="783" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -25180,7 +25175,7 @@
       <c r="AB783" s="3"/>
       <c r="AC783" s="3"/>
     </row>
-    <row r="784" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -25211,7 +25206,7 @@
       <c r="AB784" s="3"/>
       <c r="AC784" s="3"/>
     </row>
-    <row r="785" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -25242,7 +25237,7 @@
       <c r="AB785" s="3"/>
       <c r="AC785" s="3"/>
     </row>
-    <row r="786" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -25273,7 +25268,7 @@
       <c r="AB786" s="3"/>
       <c r="AC786" s="3"/>
     </row>
-    <row r="787" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -25304,7 +25299,7 @@
       <c r="AB787" s="3"/>
       <c r="AC787" s="3"/>
     </row>
-    <row r="788" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -25335,7 +25330,7 @@
       <c r="AB788" s="3"/>
       <c r="AC788" s="3"/>
     </row>
-    <row r="789" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -25366,7 +25361,7 @@
       <c r="AB789" s="3"/>
       <c r="AC789" s="3"/>
     </row>
-    <row r="790" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -25397,7 +25392,7 @@
       <c r="AB790" s="3"/>
       <c r="AC790" s="3"/>
     </row>
-    <row r="791" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -25428,7 +25423,7 @@
       <c r="AB791" s="3"/>
       <c r="AC791" s="3"/>
     </row>
-    <row r="792" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -25459,7 +25454,7 @@
       <c r="AB792" s="3"/>
       <c r="AC792" s="3"/>
     </row>
-    <row r="793" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -25490,7 +25485,7 @@
       <c r="AB793" s="3"/>
       <c r="AC793" s="3"/>
     </row>
-    <row r="794" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -25521,7 +25516,7 @@
       <c r="AB794" s="3"/>
       <c r="AC794" s="3"/>
     </row>
-    <row r="795" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -25552,7 +25547,7 @@
       <c r="AB795" s="3"/>
       <c r="AC795" s="3"/>
     </row>
-    <row r="796" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -25583,7 +25578,7 @@
       <c r="AB796" s="3"/>
       <c r="AC796" s="3"/>
     </row>
-    <row r="797" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -25614,7 +25609,7 @@
       <c r="AB797" s="3"/>
       <c r="AC797" s="3"/>
     </row>
-    <row r="798" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -25645,7 +25640,7 @@
       <c r="AB798" s="3"/>
       <c r="AC798" s="3"/>
     </row>
-    <row r="799" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -25676,7 +25671,7 @@
       <c r="AB799" s="3"/>
       <c r="AC799" s="3"/>
     </row>
-    <row r="800" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -25707,7 +25702,7 @@
       <c r="AB800" s="3"/>
       <c r="AC800" s="3"/>
     </row>
-    <row r="801" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -25738,7 +25733,7 @@
       <c r="AB801" s="3"/>
       <c r="AC801" s="3"/>
     </row>
-    <row r="802" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -25769,7 +25764,7 @@
       <c r="AB802" s="3"/>
       <c r="AC802" s="3"/>
     </row>
-    <row r="803" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -25800,7 +25795,7 @@
       <c r="AB803" s="3"/>
       <c r="AC803" s="3"/>
     </row>
-    <row r="804" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -25831,7 +25826,7 @@
       <c r="AB804" s="3"/>
       <c r="AC804" s="3"/>
     </row>
-    <row r="805" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -25862,7 +25857,7 @@
       <c r="AB805" s="3"/>
       <c r="AC805" s="3"/>
     </row>
-    <row r="806" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -25893,7 +25888,7 @@
       <c r="AB806" s="3"/>
       <c r="AC806" s="3"/>
     </row>
-    <row r="807" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -25924,7 +25919,7 @@
       <c r="AB807" s="3"/>
       <c r="AC807" s="3"/>
     </row>
-    <row r="808" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -25955,7 +25950,7 @@
       <c r="AB808" s="3"/>
       <c r="AC808" s="3"/>
     </row>
-    <row r="809" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -25986,7 +25981,7 @@
       <c r="AB809" s="3"/>
       <c r="AC809" s="3"/>
     </row>
-    <row r="810" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -26017,7 +26012,7 @@
       <c r="AB810" s="3"/>
       <c r="AC810" s="3"/>
     </row>
-    <row r="811" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -26048,7 +26043,7 @@
       <c r="AB811" s="3"/>
       <c r="AC811" s="3"/>
     </row>
-    <row r="812" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -26079,7 +26074,7 @@
       <c r="AB812" s="3"/>
       <c r="AC812" s="3"/>
     </row>
-    <row r="813" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -26110,7 +26105,7 @@
       <c r="AB813" s="3"/>
       <c r="AC813" s="3"/>
     </row>
-    <row r="814" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -26141,7 +26136,7 @@
       <c r="AB814" s="3"/>
       <c r="AC814" s="3"/>
     </row>
-    <row r="815" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -26172,7 +26167,7 @@
       <c r="AB815" s="3"/>
       <c r="AC815" s="3"/>
     </row>
-    <row r="816" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -26203,7 +26198,7 @@
       <c r="AB816" s="3"/>
       <c r="AC816" s="3"/>
     </row>
-    <row r="817" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -26234,7 +26229,7 @@
       <c r="AB817" s="3"/>
       <c r="AC817" s="3"/>
     </row>
-    <row r="818" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -26265,7 +26260,7 @@
       <c r="AB818" s="3"/>
       <c r="AC818" s="3"/>
     </row>
-    <row r="819" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -26296,7 +26291,7 @@
       <c r="AB819" s="3"/>
       <c r="AC819" s="3"/>
     </row>
-    <row r="820" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -26327,7 +26322,7 @@
       <c r="AB820" s="3"/>
       <c r="AC820" s="3"/>
     </row>
-    <row r="821" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -26358,7 +26353,7 @@
       <c r="AB821" s="3"/>
       <c r="AC821" s="3"/>
     </row>
-    <row r="822" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -26389,7 +26384,7 @@
       <c r="AB822" s="3"/>
       <c r="AC822" s="3"/>
     </row>
-    <row r="823" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -26420,7 +26415,7 @@
       <c r="AB823" s="3"/>
       <c r="AC823" s="3"/>
     </row>
-    <row r="824" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -26451,7 +26446,7 @@
       <c r="AB824" s="3"/>
       <c r="AC824" s="3"/>
     </row>
-    <row r="825" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -26482,7 +26477,7 @@
       <c r="AB825" s="3"/>
       <c r="AC825" s="3"/>
     </row>
-    <row r="826" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -26513,7 +26508,7 @@
       <c r="AB826" s="3"/>
       <c r="AC826" s="3"/>
     </row>
-    <row r="827" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -26544,7 +26539,7 @@
       <c r="AB827" s="3"/>
       <c r="AC827" s="3"/>
     </row>
-    <row r="828" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -26575,7 +26570,7 @@
       <c r="AB828" s="3"/>
       <c r="AC828" s="3"/>
     </row>
-    <row r="829" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -26606,7 +26601,7 @@
       <c r="AB829" s="3"/>
       <c r="AC829" s="3"/>
     </row>
-    <row r="830" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -26637,7 +26632,7 @@
       <c r="AB830" s="3"/>
       <c r="AC830" s="3"/>
     </row>
-    <row r="831" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -26668,7 +26663,7 @@
       <c r="AB831" s="3"/>
       <c r="AC831" s="3"/>
     </row>
-    <row r="832" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -26699,7 +26694,7 @@
       <c r="AB832" s="3"/>
       <c r="AC832" s="3"/>
     </row>
-    <row r="833" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -26730,7 +26725,7 @@
       <c r="AB833" s="3"/>
       <c r="AC833" s="3"/>
     </row>
-    <row r="834" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -26761,7 +26756,7 @@
       <c r="AB834" s="3"/>
       <c r="AC834" s="3"/>
     </row>
-    <row r="835" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -26792,7 +26787,7 @@
       <c r="AB835" s="3"/>
       <c r="AC835" s="3"/>
     </row>
-    <row r="836" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -26823,7 +26818,7 @@
       <c r="AB836" s="3"/>
       <c r="AC836" s="3"/>
     </row>
-    <row r="837" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -26854,7 +26849,7 @@
       <c r="AB837" s="3"/>
       <c r="AC837" s="3"/>
     </row>
-    <row r="838" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -26885,7 +26880,7 @@
       <c r="AB838" s="3"/>
       <c r="AC838" s="3"/>
     </row>
-    <row r="839" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -26916,7 +26911,7 @@
       <c r="AB839" s="3"/>
       <c r="AC839" s="3"/>
     </row>
-    <row r="840" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -26947,7 +26942,7 @@
       <c r="AB840" s="3"/>
       <c r="AC840" s="3"/>
     </row>
-    <row r="841" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -26978,7 +26973,7 @@
       <c r="AB841" s="3"/>
       <c r="AC841" s="3"/>
     </row>
-    <row r="842" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -27009,7 +27004,7 @@
       <c r="AB842" s="3"/>
       <c r="AC842" s="3"/>
     </row>
-    <row r="843" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -27040,7 +27035,7 @@
       <c r="AB843" s="3"/>
       <c r="AC843" s="3"/>
     </row>
-    <row r="844" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -27071,7 +27066,7 @@
       <c r="AB844" s="3"/>
       <c r="AC844" s="3"/>
     </row>
-    <row r="845" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -27102,7 +27097,7 @@
       <c r="AB845" s="3"/>
       <c r="AC845" s="3"/>
     </row>
-    <row r="846" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -27133,7 +27128,7 @@
       <c r="AB846" s="3"/>
       <c r="AC846" s="3"/>
     </row>
-    <row r="847" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -27164,7 +27159,7 @@
       <c r="AB847" s="3"/>
       <c r="AC847" s="3"/>
     </row>
-    <row r="848" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -27195,7 +27190,7 @@
       <c r="AB848" s="3"/>
       <c r="AC848" s="3"/>
     </row>
-    <row r="849" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -27226,7 +27221,7 @@
       <c r="AB849" s="3"/>
       <c r="AC849" s="3"/>
     </row>
-    <row r="850" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -27257,7 +27252,7 @@
       <c r="AB850" s="3"/>
       <c r="AC850" s="3"/>
     </row>
-    <row r="851" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -27288,7 +27283,7 @@
       <c r="AB851" s="3"/>
       <c r="AC851" s="3"/>
     </row>
-    <row r="852" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -27319,7 +27314,7 @@
       <c r="AB852" s="3"/>
       <c r="AC852" s="3"/>
     </row>
-    <row r="853" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -27350,7 +27345,7 @@
       <c r="AB853" s="3"/>
       <c r="AC853" s="3"/>
     </row>
-    <row r="854" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -27381,7 +27376,7 @@
       <c r="AB854" s="3"/>
       <c r="AC854" s="3"/>
     </row>
-    <row r="855" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -27412,7 +27407,7 @@
       <c r="AB855" s="3"/>
       <c r="AC855" s="3"/>
     </row>
-    <row r="856" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -27443,7 +27438,7 @@
       <c r="AB856" s="3"/>
       <c r="AC856" s="3"/>
     </row>
-    <row r="857" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -27474,7 +27469,7 @@
       <c r="AB857" s="3"/>
       <c r="AC857" s="3"/>
     </row>
-    <row r="858" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -27505,7 +27500,7 @@
       <c r="AB858" s="3"/>
       <c r="AC858" s="3"/>
     </row>
-    <row r="859" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -27536,7 +27531,7 @@
       <c r="AB859" s="3"/>
       <c r="AC859" s="3"/>
     </row>
-    <row r="860" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -27567,7 +27562,7 @@
       <c r="AB860" s="3"/>
       <c r="AC860" s="3"/>
     </row>
-    <row r="861" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -27598,7 +27593,7 @@
       <c r="AB861" s="3"/>
       <c r="AC861" s="3"/>
     </row>
-    <row r="862" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -27629,7 +27624,7 @@
       <c r="AB862" s="3"/>
       <c r="AC862" s="3"/>
     </row>
-    <row r="863" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -27660,7 +27655,7 @@
       <c r="AB863" s="3"/>
       <c r="AC863" s="3"/>
     </row>
-    <row r="864" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -27691,7 +27686,7 @@
       <c r="AB864" s="3"/>
       <c r="AC864" s="3"/>
     </row>
-    <row r="865" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -27722,7 +27717,7 @@
       <c r="AB865" s="3"/>
       <c r="AC865" s="3"/>
     </row>
-    <row r="866" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -27753,7 +27748,7 @@
       <c r="AB866" s="3"/>
       <c r="AC866" s="3"/>
     </row>
-    <row r="867" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -27784,7 +27779,7 @@
       <c r="AB867" s="3"/>
       <c r="AC867" s="3"/>
     </row>
-    <row r="868" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -27815,7 +27810,7 @@
       <c r="AB868" s="3"/>
       <c r="AC868" s="3"/>
     </row>
-    <row r="869" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -27846,7 +27841,7 @@
       <c r="AB869" s="3"/>
       <c r="AC869" s="3"/>
     </row>
-    <row r="870" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -27877,7 +27872,7 @@
       <c r="AB870" s="3"/>
       <c r="AC870" s="3"/>
     </row>
-    <row r="871" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -27908,7 +27903,7 @@
       <c r="AB871" s="3"/>
       <c r="AC871" s="3"/>
     </row>
-    <row r="872" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -27939,7 +27934,7 @@
       <c r="AB872" s="3"/>
       <c r="AC872" s="3"/>
     </row>
-    <row r="873" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -27970,7 +27965,7 @@
       <c r="AB873" s="3"/>
       <c r="AC873" s="3"/>
     </row>
-    <row r="874" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -28001,7 +27996,7 @@
       <c r="AB874" s="3"/>
       <c r="AC874" s="3"/>
     </row>
-    <row r="875" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -28032,7 +28027,7 @@
       <c r="AB875" s="3"/>
       <c r="AC875" s="3"/>
     </row>
-    <row r="876" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -28063,7 +28058,7 @@
       <c r="AB876" s="3"/>
       <c r="AC876" s="3"/>
     </row>
-    <row r="877" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -28094,7 +28089,7 @@
       <c r="AB877" s="3"/>
       <c r="AC877" s="3"/>
     </row>
-    <row r="878" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -28125,7 +28120,7 @@
       <c r="AB878" s="3"/>
       <c r="AC878" s="3"/>
     </row>
-    <row r="879" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -28156,7 +28151,7 @@
       <c r="AB879" s="3"/>
       <c r="AC879" s="3"/>
     </row>
-    <row r="880" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -28187,7 +28182,7 @@
       <c r="AB880" s="3"/>
       <c r="AC880" s="3"/>
     </row>
-    <row r="881" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -28218,7 +28213,7 @@
       <c r="AB881" s="3"/>
       <c r="AC881" s="3"/>
     </row>
-    <row r="882" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -28249,7 +28244,7 @@
       <c r="AB882" s="3"/>
       <c r="AC882" s="3"/>
     </row>
-    <row r="883" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -28280,7 +28275,7 @@
       <c r="AB883" s="3"/>
       <c r="AC883" s="3"/>
     </row>
-    <row r="884" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -28311,7 +28306,7 @@
       <c r="AB884" s="3"/>
       <c r="AC884" s="3"/>
     </row>
-    <row r="885" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -28342,7 +28337,7 @@
       <c r="AB885" s="3"/>
       <c r="AC885" s="3"/>
     </row>
-    <row r="886" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -28373,7 +28368,7 @@
       <c r="AB886" s="3"/>
       <c r="AC886" s="3"/>
     </row>
-    <row r="887" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -28404,7 +28399,7 @@
       <c r="AB887" s="3"/>
       <c r="AC887" s="3"/>
     </row>
-    <row r="888" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -28435,7 +28430,7 @@
       <c r="AB888" s="3"/>
       <c r="AC888" s="3"/>
     </row>
-    <row r="889" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -28466,7 +28461,7 @@
       <c r="AB889" s="3"/>
       <c r="AC889" s="3"/>
     </row>
-    <row r="890" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -28497,7 +28492,7 @@
       <c r="AB890" s="3"/>
       <c r="AC890" s="3"/>
     </row>
-    <row r="891" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -28528,7 +28523,7 @@
       <c r="AB891" s="3"/>
       <c r="AC891" s="3"/>
     </row>
-    <row r="892" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -28559,7 +28554,7 @@
       <c r="AB892" s="3"/>
       <c r="AC892" s="3"/>
     </row>
-    <row r="893" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -28590,7 +28585,7 @@
       <c r="AB893" s="3"/>
       <c r="AC893" s="3"/>
     </row>
-    <row r="894" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -28621,7 +28616,7 @@
       <c r="AB894" s="3"/>
       <c r="AC894" s="3"/>
     </row>
-    <row r="895" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -28652,7 +28647,7 @@
       <c r="AB895" s="3"/>
       <c r="AC895" s="3"/>
     </row>
-    <row r="896" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -28683,7 +28678,7 @@
       <c r="AB896" s="3"/>
       <c r="AC896" s="3"/>
     </row>
-    <row r="897" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -28714,7 +28709,7 @@
       <c r="AB897" s="3"/>
       <c r="AC897" s="3"/>
     </row>
-    <row r="898" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -28745,7 +28740,7 @@
       <c r="AB898" s="3"/>
       <c r="AC898" s="3"/>
     </row>
-    <row r="899" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -28776,7 +28771,7 @@
       <c r="AB899" s="3"/>
       <c r="AC899" s="3"/>
     </row>
-    <row r="900" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -28807,7 +28802,7 @@
       <c r="AB900" s="3"/>
       <c r="AC900" s="3"/>
     </row>
-    <row r="901" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -28838,7 +28833,7 @@
       <c r="AB901" s="3"/>
       <c r="AC901" s="3"/>
     </row>
-    <row r="902" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -28869,7 +28864,7 @@
       <c r="AB902" s="3"/>
       <c r="AC902" s="3"/>
     </row>
-    <row r="903" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -28900,7 +28895,7 @@
       <c r="AB903" s="3"/>
       <c r="AC903" s="3"/>
     </row>
-    <row r="904" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -28931,7 +28926,7 @@
       <c r="AB904" s="3"/>
       <c r="AC904" s="3"/>
     </row>
-    <row r="905" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -28962,7 +28957,7 @@
       <c r="AB905" s="3"/>
       <c r="AC905" s="3"/>
     </row>
-    <row r="906" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -28993,7 +28988,7 @@
       <c r="AB906" s="3"/>
       <c r="AC906" s="3"/>
     </row>
-    <row r="907" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -29024,7 +29019,7 @@
       <c r="AB907" s="3"/>
       <c r="AC907" s="3"/>
     </row>
-    <row r="908" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -29055,7 +29050,7 @@
       <c r="AB908" s="3"/>
       <c r="AC908" s="3"/>
     </row>
-    <row r="909" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -29086,7 +29081,7 @@
       <c r="AB909" s="3"/>
       <c r="AC909" s="3"/>
     </row>
-    <row r="910" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -29117,7 +29112,7 @@
       <c r="AB910" s="3"/>
       <c r="AC910" s="3"/>
     </row>
-    <row r="911" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -29148,7 +29143,7 @@
       <c r="AB911" s="3"/>
       <c r="AC911" s="3"/>
     </row>
-    <row r="912" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -29179,7 +29174,7 @@
       <c r="AB912" s="3"/>
       <c r="AC912" s="3"/>
     </row>
-    <row r="913" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -29210,7 +29205,7 @@
       <c r="AB913" s="3"/>
       <c r="AC913" s="3"/>
     </row>
-    <row r="914" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -29241,7 +29236,7 @@
       <c r="AB914" s="3"/>
       <c r="AC914" s="3"/>
     </row>
-    <row r="915" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -29272,7 +29267,7 @@
       <c r="AB915" s="3"/>
       <c r="AC915" s="3"/>
     </row>
-    <row r="916" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -29303,7 +29298,7 @@
       <c r="AB916" s="3"/>
       <c r="AC916" s="3"/>
     </row>
-    <row r="917" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -29334,7 +29329,7 @@
       <c r="AB917" s="3"/>
       <c r="AC917" s="3"/>
     </row>
-    <row r="918" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -29365,7 +29360,7 @@
       <c r="AB918" s="3"/>
       <c r="AC918" s="3"/>
     </row>
-    <row r="919" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -29396,7 +29391,7 @@
       <c r="AB919" s="3"/>
       <c r="AC919" s="3"/>
     </row>
-    <row r="920" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -29427,7 +29422,7 @@
       <c r="AB920" s="3"/>
       <c r="AC920" s="3"/>
     </row>
-    <row r="921" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -29458,7 +29453,7 @@
       <c r="AB921" s="3"/>
       <c r="AC921" s="3"/>
     </row>
-    <row r="922" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -29489,7 +29484,7 @@
       <c r="AB922" s="3"/>
       <c r="AC922" s="3"/>
     </row>
-    <row r="923" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -29520,7 +29515,7 @@
       <c r="AB923" s="3"/>
       <c r="AC923" s="3"/>
     </row>
-    <row r="924" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -29551,7 +29546,7 @@
       <c r="AB924" s="3"/>
       <c r="AC924" s="3"/>
     </row>
-    <row r="925" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -29582,7 +29577,7 @@
       <c r="AB925" s="3"/>
       <c r="AC925" s="3"/>
     </row>
-    <row r="926" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -29613,7 +29608,7 @@
       <c r="AB926" s="3"/>
       <c r="AC926" s="3"/>
     </row>
-    <row r="927" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -29644,7 +29639,7 @@
       <c r="AB927" s="3"/>
       <c r="AC927" s="3"/>
     </row>
-    <row r="928" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -29675,7 +29670,7 @@
       <c r="AB928" s="3"/>
       <c r="AC928" s="3"/>
     </row>
-    <row r="929" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -29706,7 +29701,7 @@
       <c r="AB929" s="3"/>
       <c r="AC929" s="3"/>
     </row>
-    <row r="930" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -29737,7 +29732,7 @@
       <c r="AB930" s="3"/>
       <c r="AC930" s="3"/>
     </row>
-    <row r="931" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -29768,7 +29763,7 @@
       <c r="AB931" s="3"/>
       <c r="AC931" s="3"/>
     </row>
-    <row r="932" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -29799,7 +29794,7 @@
       <c r="AB932" s="3"/>
       <c r="AC932" s="3"/>
     </row>
-    <row r="933" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -29830,7 +29825,7 @@
       <c r="AB933" s="3"/>
       <c r="AC933" s="3"/>
     </row>
-    <row r="934" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -29861,7 +29856,7 @@
       <c r="AB934" s="3"/>
       <c r="AC934" s="3"/>
     </row>
-    <row r="935" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -29892,7 +29887,7 @@
       <c r="AB935" s="3"/>
       <c r="AC935" s="3"/>
     </row>
-    <row r="936" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -29923,7 +29918,7 @@
       <c r="AB936" s="3"/>
       <c r="AC936" s="3"/>
     </row>
-    <row r="937" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -29954,7 +29949,7 @@
       <c r="AB937" s="3"/>
       <c r="AC937" s="3"/>
     </row>
-    <row r="938" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -29985,7 +29980,7 @@
       <c r="AB938" s="3"/>
       <c r="AC938" s="3"/>
     </row>
-    <row r="939" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -30016,7 +30011,7 @@
       <c r="AB939" s="3"/>
       <c r="AC939" s="3"/>
     </row>
-    <row r="940" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -30047,7 +30042,7 @@
       <c r="AB940" s="3"/>
       <c r="AC940" s="3"/>
     </row>
-    <row r="941" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -30078,7 +30073,7 @@
       <c r="AB941" s="3"/>
       <c r="AC941" s="3"/>
     </row>
-    <row r="942" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -30109,7 +30104,7 @@
       <c r="AB942" s="3"/>
       <c r="AC942" s="3"/>
     </row>
-    <row r="943" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -30140,7 +30135,7 @@
       <c r="AB943" s="3"/>
       <c r="AC943" s="3"/>
     </row>
-    <row r="944" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -30171,7 +30166,7 @@
       <c r="AB944" s="3"/>
       <c r="AC944" s="3"/>
     </row>
-    <row r="945" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -30202,7 +30197,7 @@
       <c r="AB945" s="3"/>
       <c r="AC945" s="3"/>
     </row>
-    <row r="946" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -30233,7 +30228,7 @@
       <c r="AB946" s="3"/>
       <c r="AC946" s="3"/>
     </row>
-    <row r="947" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -30264,7 +30259,7 @@
       <c r="AB947" s="3"/>
       <c r="AC947" s="3"/>
     </row>
-    <row r="948" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -30295,7 +30290,7 @@
       <c r="AB948" s="3"/>
       <c r="AC948" s="3"/>
     </row>
-    <row r="949" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -30326,7 +30321,7 @@
       <c r="AB949" s="3"/>
       <c r="AC949" s="3"/>
     </row>
-    <row r="950" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -30357,7 +30352,7 @@
       <c r="AB950" s="3"/>
       <c r="AC950" s="3"/>
     </row>
-    <row r="951" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -30388,7 +30383,7 @@
       <c r="AB951" s="3"/>
       <c r="AC951" s="3"/>
     </row>
-    <row r="952" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -30419,7 +30414,7 @@
       <c r="AB952" s="3"/>
       <c r="AC952" s="3"/>
     </row>
-    <row r="953" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -30450,7 +30445,7 @@
       <c r="AB953" s="3"/>
       <c r="AC953" s="3"/>
     </row>
-    <row r="954" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -30481,7 +30476,7 @@
       <c r="AB954" s="3"/>
       <c r="AC954" s="3"/>
     </row>
-    <row r="955" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -30512,7 +30507,7 @@
       <c r="AB955" s="3"/>
       <c r="AC955" s="3"/>
     </row>
-    <row r="956" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -30543,7 +30538,7 @@
       <c r="AB956" s="3"/>
       <c r="AC956" s="3"/>
     </row>
-    <row r="957" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -30574,7 +30569,7 @@
       <c r="AB957" s="3"/>
       <c r="AC957" s="3"/>
     </row>
-    <row r="958" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -30605,7 +30600,7 @@
       <c r="AB958" s="3"/>
       <c r="AC958" s="3"/>
     </row>
-    <row r="959" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -30636,7 +30631,7 @@
       <c r="AB959" s="3"/>
       <c r="AC959" s="3"/>
     </row>
-    <row r="960" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -30667,7 +30662,7 @@
       <c r="AB960" s="3"/>
       <c r="AC960" s="3"/>
     </row>
-    <row r="961" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -30698,7 +30693,7 @@
       <c r="AB961" s="3"/>
       <c r="AC961" s="3"/>
     </row>
-    <row r="962" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -30729,7 +30724,7 @@
       <c r="AB962" s="3"/>
       <c r="AC962" s="3"/>
     </row>
-    <row r="963" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -30760,7 +30755,7 @@
       <c r="AB963" s="3"/>
       <c r="AC963" s="3"/>
     </row>
-    <row r="964" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -30791,7 +30786,7 @@
       <c r="AB964" s="3"/>
       <c r="AC964" s="3"/>
     </row>
-    <row r="965" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -30822,7 +30817,7 @@
       <c r="AB965" s="3"/>
       <c r="AC965" s="3"/>
     </row>
-    <row r="966" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -30853,7 +30848,7 @@
       <c r="AB966" s="3"/>
       <c r="AC966" s="3"/>
     </row>
-    <row r="967" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -30884,7 +30879,7 @@
       <c r="AB967" s="3"/>
       <c r="AC967" s="3"/>
     </row>
-    <row r="968" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -30915,7 +30910,7 @@
       <c r="AB968" s="3"/>
       <c r="AC968" s="3"/>
     </row>
-    <row r="969" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -30946,7 +30941,7 @@
       <c r="AB969" s="3"/>
       <c r="AC969" s="3"/>
     </row>
-    <row r="970" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -30977,7 +30972,7 @@
       <c r="AB970" s="3"/>
       <c r="AC970" s="3"/>
     </row>
-    <row r="971" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -31008,7 +31003,7 @@
       <c r="AB971" s="3"/>
       <c r="AC971" s="3"/>
     </row>
-    <row r="972" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -31039,7 +31034,7 @@
       <c r="AB972" s="3"/>
       <c r="AC972" s="3"/>
     </row>
-    <row r="973" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -31070,7 +31065,7 @@
       <c r="AB973" s="3"/>
       <c r="AC973" s="3"/>
     </row>
-    <row r="974" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -31101,7 +31096,7 @@
       <c r="AB974" s="3"/>
       <c r="AC974" s="3"/>
     </row>
-    <row r="975" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -31132,7 +31127,7 @@
       <c r="AB975" s="3"/>
       <c r="AC975" s="3"/>
     </row>
-    <row r="976" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -31163,7 +31158,7 @@
       <c r="AB976" s="3"/>
       <c r="AC976" s="3"/>
     </row>
-    <row r="977" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -31194,7 +31189,7 @@
       <c r="AB977" s="3"/>
       <c r="AC977" s="3"/>
     </row>
-    <row r="978" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -31225,7 +31220,7 @@
       <c r="AB978" s="3"/>
       <c r="AC978" s="3"/>
     </row>
-    <row r="979" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -31256,7 +31251,7 @@
       <c r="AB979" s="3"/>
       <c r="AC979" s="3"/>
     </row>
-    <row r="980" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -31287,7 +31282,7 @@
       <c r="AB980" s="3"/>
       <c r="AC980" s="3"/>
     </row>
-    <row r="981" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -31318,7 +31313,7 @@
       <c r="AB981" s="3"/>
       <c r="AC981" s="3"/>
     </row>
-    <row r="982" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -31349,7 +31344,7 @@
       <c r="AB982" s="3"/>
       <c r="AC982" s="3"/>
     </row>
-    <row r="983" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -31380,7 +31375,7 @@
       <c r="AB983" s="3"/>
       <c r="AC983" s="3"/>
     </row>
-    <row r="984" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -31411,7 +31406,7 @@
       <c r="AB984" s="3"/>
       <c r="AC984" s="3"/>
     </row>
-    <row r="985" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -31442,7 +31437,7 @@
       <c r="AB985" s="3"/>
       <c r="AC985" s="3"/>
     </row>
-    <row r="986" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -31473,7 +31468,7 @@
       <c r="AB986" s="3"/>
       <c r="AC986" s="3"/>
     </row>
-    <row r="987" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -31504,7 +31499,7 @@
       <c r="AB987" s="3"/>
       <c r="AC987" s="3"/>
     </row>
-    <row r="988" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -31535,7 +31530,7 @@
       <c r="AB988" s="3"/>
       <c r="AC988" s="3"/>
     </row>
-    <row r="989" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -31566,7 +31561,7 @@
       <c r="AB989" s="3"/>
       <c r="AC989" s="3"/>
     </row>
-    <row r="990" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -31597,7 +31592,7 @@
       <c r="AB990" s="3"/>
       <c r="AC990" s="3"/>
     </row>
-    <row r="991" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -31628,7 +31623,7 @@
       <c r="AB991" s="3"/>
       <c r="AC991" s="3"/>
     </row>
-    <row r="992" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -31659,7 +31654,7 @@
       <c r="AB992" s="3"/>
       <c r="AC992" s="3"/>
     </row>
-    <row r="993" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -31690,7 +31685,7 @@
       <c r="AB993" s="3"/>
       <c r="AC993" s="3"/>
     </row>
-    <row r="994" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -31721,7 +31716,7 @@
       <c r="AB994" s="3"/>
       <c r="AC994" s="3"/>
     </row>
-    <row r="995" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -31752,7 +31747,7 @@
       <c r="AB995" s="3"/>
       <c r="AC995" s="3"/>
     </row>
-    <row r="996" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -31783,7 +31778,7 @@
       <c r="AB996" s="3"/>
       <c r="AC996" s="3"/>
     </row>
-    <row r="997" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
@@ -31814,7 +31809,7 @@
       <c r="AB997" s="3"/>
       <c r="AC997" s="3"/>
     </row>
-    <row r="998" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
@@ -31845,7 +31840,7 @@
       <c r="AB998" s="3"/>
       <c r="AC998" s="3"/>
     </row>
-    <row r="999" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
@@ -31876,7 +31871,7 @@
       <c r="AB999" s="3"/>
       <c r="AC999" s="3"/>
     </row>
-    <row r="1000" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
